--- a/notes/shop costs.xlsx
+++ b/notes/shop costs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="225">
   <si>
     <t>Item</t>
   </si>
@@ -560,9 +560,6 @@
   </si>
   <si>
     <t>steam turbine</t>
-  </si>
-  <si>
-    <t>hull component</t>
   </si>
   <si>
     <t>Habitation</t>
@@ -1162,11 +1159,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1207,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1227,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E78" si="0">SUM(B2+10+C2)/D2</f>
+        <f t="shared" ref="E2:E77" si="0">SUM(B2+10+C2)/D2</f>
         <v>13.5</v>
       </c>
       <c r="F2">
@@ -2631,26 +2628,26 @@
       <c r="O59" s="3"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" ht="12.75">
+    <row r="60" spans="1:17" ht="18" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B60">
-        <f>(F25)*2500+(F6)*1000</f>
-        <v>3258500</v>
+        <f>(F4)*5+(F2)*10</f>
+        <v>280</v>
       </c>
       <c r="C60" s="3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>3258560</v>
+        <v>298</v>
       </c>
       <c r="F60">
-        <v>3258560</v>
+        <v>298</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="5"/>
@@ -2659,13 +2656,13 @@
       <c r="O60" s="3"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17" ht="18" customHeight="1">
+    <row r="61" spans="1:17" ht="12.75">
       <c r="A61" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B61">
-        <f>(F4)*5+(F2)*10</f>
-        <v>280</v>
+        <f>(F60)*7+(F42)*5+(F6)*5</f>
+        <v>3251</v>
       </c>
       <c r="C61" s="3">
         <v>8</v>
@@ -2675,10 +2672,10 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>3269</v>
       </c>
       <c r="F61">
-        <v>298</v>
+        <v>3269</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="5"/>
@@ -2689,24 +2686,24 @@
     </row>
     <row r="62" spans="1:17" ht="12.75">
       <c r="A62" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B62">
-        <f>(F61)*7+(F42)*5+(F6)*5</f>
-        <v>3251</v>
+        <f>F4+F7+F10</f>
+        <v>194</v>
       </c>
       <c r="C62" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>3269</v>
+        <v>205</v>
       </c>
       <c r="F62">
-        <v>3269</v>
+        <v>205</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="5"/>
@@ -2720,8 +2717,8 @@
         <v>176</v>
       </c>
       <c r="B63">
-        <f>F4+F7+F10</f>
-        <v>194</v>
+        <f>F3*5</f>
+        <v>210</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
@@ -2731,10 +2728,10 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="F63">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="5"/>
@@ -2745,24 +2742,24 @@
     </row>
     <row r="64" spans="1:17" ht="12.75">
       <c r="A64" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B64">
-        <f>F3*5</f>
-        <v>210</v>
+        <f>F6+F2+(F4)</f>
+        <v>208</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>109.5</v>
       </c>
       <c r="F64">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="5"/>
@@ -2776,21 +2773,21 @@
         <v>179</v>
       </c>
       <c r="B65">
-        <f>F6+F2+(F4)</f>
-        <v>208</v>
+        <f>(F7)*5+(F10)*3+(F4)*10</f>
+        <v>912</v>
       </c>
       <c r="C65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>109.5</v>
+        <v>924</v>
       </c>
       <c r="F65">
-        <v>110</v>
+        <v>924</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="5"/>
@@ -2801,24 +2798,24 @@
     </row>
     <row r="66" spans="1:17" ht="12.75">
       <c r="A66" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B66">
-        <f>(F7)*5+(F10)*3+(F4)*10</f>
-        <v>912</v>
+        <f>(F10)*3+(F7)*5+(F4)*9</f>
+        <v>884</v>
       </c>
       <c r="C66" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>924</v>
+        <v>894.5</v>
       </c>
       <c r="F66">
-        <v>924</v>
+        <v>895</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="5"/>
@@ -2832,8 +2829,8 @@
         <v>182</v>
       </c>
       <c r="B67">
-        <f>(F10)*3+(F7)*5+(F4)*9</f>
-        <v>884</v>
+        <f>(F6)*2+(F10)*3+(F7)*5+(F66)</f>
+        <v>1859</v>
       </c>
       <c r="C67" s="3">
         <v>0.5</v>
@@ -2843,10 +2840,10 @@
       </c>
       <c r="E67">
         <f t="shared" si="0"/>
-        <v>894.5</v>
+        <v>1869.5</v>
       </c>
       <c r="F67">
-        <v>895</v>
+        <v>1870</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="5"/>
@@ -2857,24 +2854,24 @@
     </row>
     <row r="68" spans="1:17" ht="12.75">
       <c r="A68" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B68">
-        <f>(F6)*2+(F10)*3+(F7)*5+(F67)</f>
-        <v>1859</v>
+        <f>(F6)*15+(F7)*10+(F3)*10+(F10)*10+(F11)*10</f>
+        <v>4960</v>
       </c>
       <c r="C68" s="3">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
       </c>
       <c r="E68">
         <f t="shared" si="0"/>
-        <v>1869.5</v>
+        <v>4978</v>
       </c>
       <c r="F68">
-        <v>1870</v>
+        <v>4978</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="5"/>
@@ -2885,24 +2882,24 @@
     </row>
     <row r="69" spans="1:17" ht="12.75">
       <c r="A69" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B69">
-        <f>(F6)*15+(F7)*10+(F3)*10+(F10)*10+(F11)*10</f>
-        <v>4960</v>
+        <f>(F23*5) + (F6*10) + (F3*10)</f>
+        <v>4180</v>
       </c>
       <c r="C69" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
       </c>
       <c r="E69">
         <f t="shared" si="0"/>
-        <v>4978</v>
+        <v>4195</v>
       </c>
       <c r="F69">
-        <v>4978</v>
+        <v>4195</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="5"/>
@@ -2916,8 +2913,8 @@
         <v>192</v>
       </c>
       <c r="B70">
-        <f>(F23*5) + (F6*10) + (F3*10)</f>
-        <v>4180</v>
+        <f>F5 + F7</f>
+        <v>95</v>
       </c>
       <c r="C70" s="3">
         <v>5</v>
@@ -2927,10 +2924,10 @@
       </c>
       <c r="E70">
         <f t="shared" si="0"/>
-        <v>4195</v>
+        <v>110</v>
       </c>
       <c r="F70">
-        <v>4195</v>
+        <v>110</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="5"/>
@@ -2944,21 +2941,21 @@
         <v>193</v>
       </c>
       <c r="B71">
-        <f>F5 + F7</f>
-        <v>95</v>
+        <f>F8 + F62</f>
+        <v>258</v>
       </c>
       <c r="C71" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
       </c>
       <c r="E71">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="F71">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="5"/>
@@ -2972,21 +2969,21 @@
         <v>194</v>
       </c>
       <c r="B72">
-        <f>F8 + F63</f>
-        <v>258</v>
+        <f>F60+F40+(F63*2)</f>
+        <v>1182</v>
       </c>
       <c r="C72" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D72" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>601</v>
       </c>
       <c r="F72">
-        <v>274</v>
+        <v>601</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="5"/>
@@ -2997,24 +2994,24 @@
     </row>
     <row r="73" spans="1:17" ht="12.75">
       <c r="A73" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B73">
-        <f>F61+F40+(F64*2)</f>
-        <v>1182</v>
+        <f>(F23*3) + (F26*2) + F28</f>
+        <v>1984</v>
       </c>
       <c r="C73" s="3">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
       </c>
       <c r="E73">
         <f t="shared" si="0"/>
-        <v>601</v>
+        <v>1009</v>
       </c>
       <c r="F73">
-        <v>601</v>
+        <v>1009</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="5"/>
@@ -3028,21 +3025,21 @@
         <v>198</v>
       </c>
       <c r="B74">
-        <f>(F23*3) + (F26*2) + F28</f>
-        <v>1984</v>
+        <f>F33+F69+(F64*30)</f>
+        <v>10115</v>
       </c>
       <c r="C74" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D74" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <f t="shared" si="0"/>
-        <v>1009</v>
+        <v>3382</v>
       </c>
       <c r="F74">
-        <v>1009</v>
+        <v>3382</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="5"/>
@@ -3053,11 +3050,11 @@
     </row>
     <row r="75" spans="1:17" ht="12.75">
       <c r="A75" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B75">
-        <f>F33+F70+(F65*30)</f>
-        <v>10115</v>
+        <f>F32+(F25*3)+(F24*2)</f>
+        <v>11328</v>
       </c>
       <c r="C75" s="3">
         <v>21</v>
@@ -3067,10 +3064,10 @@
       </c>
       <c r="E75">
         <f t="shared" si="0"/>
-        <v>3382</v>
+        <v>3786.3333333333335</v>
       </c>
       <c r="F75">
-        <v>3382</v>
+        <v>3787</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="5"/>
@@ -3083,78 +3080,56 @@
       <c r="A76" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B76">
-        <f>F32+(F25*3)+(F24*2)</f>
-        <v>11328</v>
+      <c r="B76" s="17">
+        <f>F38+F55</f>
+        <v>8040285</v>
       </c>
       <c r="C76" s="3">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D76" s="3">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="E76">
         <f t="shared" si="0"/>
-        <v>3786.3333333333335</v>
+        <v>8040.3549999999996</v>
       </c>
       <c r="F76">
-        <v>3787</v>
+        <v>8041</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="5"/>
       <c r="J76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="12.75">
       <c r="A77" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B77" s="17">
-        <f>F38+F55</f>
-        <v>8040285</v>
+        <v>203</v>
+      </c>
+      <c r="B77">
+        <f>SUM(F70:F76)</f>
+        <v>17204</v>
       </c>
       <c r="C77" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D77" s="3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <f t="shared" si="0"/>
-        <v>8040.3549999999996</v>
+        <v>17214</v>
       </c>
       <c r="F77">
-        <v>8041</v>
-      </c>
-      <c r="G77" s="17"/>
-      <c r="H77" s="5"/>
+        <v>17214</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="17"/>
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="12.75">
-      <c r="A78" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B78">
-        <f>SUM(F71:F77)</f>
-        <v>17204</v>
-      </c>
-      <c r="C78" s="3">
-        <v>0</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="0"/>
-        <v>17214</v>
-      </c>
-      <c r="F78">
-        <v>17214</v>
-      </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="5"/>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="12.75">
@@ -3163,35 +3138,40 @@
       <c r="H79" s="5"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75">
+    <row r="80" spans="1:17" ht="14.25">
+      <c r="A80" s="20"/>
       <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="17"/>
       <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
     </row>
     <row r="81" spans="1:15" ht="14.25">
       <c r="A81" s="20"/>
       <c r="F81" s="17"/>
       <c r="G81" s="5"/>
       <c r="H81" s="17"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
       <c r="N81" s="16"/>
       <c r="O81" s="16"/>
     </row>
     <row r="82" spans="1:15" ht="14.25">
-      <c r="A82" s="20"/>
+      <c r="A82" s="20" t="s">
+        <v>224</v>
+      </c>
       <c r="F82" s="17"/>
       <c r="G82" s="5"/>
       <c r="H82" s="17"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
     </row>
     <row r="83" spans="1:15" ht="14.25">
-      <c r="A83" s="20" t="s">
-        <v>225</v>
-      </c>
+      <c r="A83" s="20"/>
       <c r="F83" s="17"/>
       <c r="G83" s="5"/>
       <c r="H83" s="17"/>
@@ -3206,9 +3186,6 @@
       <c r="F84" s="17"/>
       <c r="G84" s="5"/>
       <c r="H84" s="17"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
       <c r="N84" s="16"/>
       <c r="O84" s="16"/>
     </row>
@@ -3217,6 +3194,9 @@
       <c r="F85" s="17"/>
       <c r="G85" s="5"/>
       <c r="H85" s="17"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
     </row>
@@ -3225,9 +3205,6 @@
       <c r="F86" s="17"/>
       <c r="G86" s="5"/>
       <c r="H86" s="17"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
       <c r="N86" s="16"/>
       <c r="O86" s="16"/>
     </row>
@@ -3255,116 +3232,138 @@
       <c r="N89" s="16"/>
       <c r="O89" s="16"/>
     </row>
-    <row r="90" spans="1:15" ht="14.25">
-      <c r="A90" s="20"/>
+    <row r="90" spans="1:15" ht="12.75">
       <c r="F90" s="17"/>
-      <c r="G90" s="5"/>
+      <c r="G90" s="17"/>
       <c r="H90" s="17"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-    </row>
-    <row r="91" spans="1:15" ht="12.75">
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
+    </row>
+    <row r="91" spans="1:15" ht="15">
+      <c r="A91" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91">
+        <f>(F6*50)+(F23*30)</f>
+        <v>20900</v>
+      </c>
+      <c r="C91" s="3">
+        <v>15</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ref="E91:E108" si="1">SUM(B91+10+C91)/D91</f>
+        <v>20925</v>
+      </c>
+      <c r="F91" s="17">
+        <v>20925</v>
+      </c>
+      <c r="G91" s="5">
+        <f>F91/100</f>
+        <v>209.25</v>
+      </c>
+      <c r="H91" s="17">
+        <f t="shared" ref="H91:H92" si="2">IF(G91 &lt; 1000, ROUND(G91,-1), IF(G91 &lt; 10000, ROUND(G91,-2), ROUND(G91,-3)))</f>
+        <v>210</v>
+      </c>
     </row>
     <row r="92" spans="1:15" ht="15">
       <c r="A92" s="22" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B92">
-        <f>(F6*50)+(F23*30)</f>
-        <v>20900</v>
+        <f>(F6*40)+(F24*40)+(F27*20)</f>
+        <v>135920</v>
       </c>
       <c r="C92" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D92" s="3">
         <v>1</v>
       </c>
       <c r="E92">
-        <f t="shared" ref="E92:E109" si="1">SUM(B92+10+C92)/D92</f>
-        <v>20925</v>
+        <f t="shared" si="1"/>
+        <v>135950</v>
       </c>
       <c r="F92" s="17">
-        <v>20925</v>
+        <v>135950</v>
       </c>
       <c r="G92" s="5">
-        <f>F92/100</f>
-        <v>209.25</v>
+        <f t="shared" ref="G92:G108" si="3">F92/100</f>
+        <v>1359.5</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" ref="H92:H93" si="2">IF(G92 &lt; 1000, ROUND(G92,-1), IF(G92 &lt; 10000, ROUND(G92,-2), ROUND(G92,-3)))</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>1400</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15">
       <c r="A93" s="22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B93">
-        <f>(F6*40)+(F24*40)+(F27*20)</f>
-        <v>135920</v>
+        <f>SUM(F34*50)+(F24*60)+(F27*40)+(F25*30)</f>
+        <v>1594820</v>
       </c>
       <c r="C93" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D93" s="3">
         <v>1</v>
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>135950</v>
+        <v>1594855</v>
       </c>
       <c r="F93" s="17">
-        <v>135950</v>
+        <v>1594855</v>
       </c>
       <c r="G93" s="5">
-        <f t="shared" ref="G93:G109" si="3">F93/100</f>
-        <v>1359.5</v>
+        <f t="shared" si="3"/>
+        <v>15948.55</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="2"/>
-        <v>1400</v>
+        <f>IF(G93 &lt; 1000, ROUND(G93,-1), IF(G93 &lt; 10000, ROUND(G93,-2), ROUND(G93,-3)))</f>
+        <v>16000</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="15">
       <c r="A94" s="22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B94">
-        <f>SUM(F34*50)+(F24*60)+(F27*40)+(F25*30)</f>
-        <v>1594820</v>
+        <f>(F6*5)+(F23*2)+F30</f>
+        <v>4145</v>
       </c>
       <c r="C94" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D94" s="3">
         <v>1</v>
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>1594855</v>
+        <v>4165</v>
       </c>
       <c r="F94" s="17">
-        <v>1594855</v>
+        <v>4165</v>
       </c>
       <c r="G94" s="5">
         <f t="shared" si="3"/>
-        <v>15948.55</v>
+        <v>41.65</v>
       </c>
       <c r="H94" s="17">
-        <f>IF(G94 &lt; 1000, ROUND(G94,-1), IF(G94 &lt; 10000, ROUND(G94,-2), ROUND(G94,-3)))</f>
-        <v>16000</v>
+        <f t="shared" ref="H94:H96" si="4">IF(G94 &lt; 1000, ROUND(G94,-1), IF(G94 &lt; 10000, ROUND(G94,-2), ROUND(G94,-3)))</f>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="15">
       <c r="A95" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B95">
-        <f>(F6*5)+(F23*2)+F30</f>
-        <v>4145</v>
+        <f>(F24*200)+(50*F25)</f>
+        <v>642850</v>
       </c>
       <c r="C95" s="3">
         <v>10</v>
@@ -3374,18 +3373,18 @@
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>4165</v>
+        <v>642870</v>
       </c>
       <c r="F95" s="17">
-        <v>4165</v>
+        <v>642870</v>
       </c>
       <c r="G95" s="5">
         <f t="shared" si="3"/>
-        <v>41.65</v>
+        <v>6428.7</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" ref="H95:H109" si="4">IF(G95 &lt; 1000, ROUND(G95,-1), IF(G95 &lt; 10000, ROUND(G95,-2), ROUND(G95,-3)))</f>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>6400</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15">
@@ -3393,8 +3392,8 @@
         <v>205</v>
       </c>
       <c r="B96">
-        <f>(F24*200)+(50*F25)</f>
-        <v>642850</v>
+        <f>(F6*10)+(F23*5)</f>
+        <v>3760</v>
       </c>
       <c r="C96" s="3">
         <v>10</v>
@@ -3404,18 +3403,18 @@
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>642870</v>
+        <v>3780</v>
       </c>
       <c r="F96" s="17">
-        <v>642870</v>
+        <v>3780</v>
       </c>
       <c r="G96" s="5">
         <f t="shared" si="3"/>
-        <v>6428.7</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="H96" s="17">
         <f t="shared" si="4"/>
-        <v>6400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15">
@@ -3423,8 +3422,8 @@
         <v>206</v>
       </c>
       <c r="B97">
-        <f>(F6*10)+(F23*5)</f>
-        <v>3760</v>
+        <f>(F96*10)+(5*F24)+(F25*5)</f>
+        <v>58510</v>
       </c>
       <c r="C97" s="3">
         <v>10</v>
@@ -3434,18 +3433,18 @@
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>3780</v>
+        <v>58530</v>
       </c>
       <c r="F97" s="17">
-        <v>3780</v>
+        <v>58530</v>
       </c>
       <c r="G97" s="5">
         <f t="shared" si="3"/>
-        <v>37.799999999999997</v>
+        <v>585.29999999999995</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f>IF(G97 &lt; 1000, ROUND(G97,-1), IF(G97 &lt; 10000, ROUND(G97,-2), ROUND(G97,-3)))</f>
+        <v>590</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15">
@@ -3453,8 +3452,8 @@
         <v>207</v>
       </c>
       <c r="B98">
-        <f>(F97*10)+(5*F24)+(F25*5)</f>
-        <v>58510</v>
+        <f>(F6*10)+(F19*5)</f>
+        <v>3310</v>
       </c>
       <c r="C98" s="3">
         <v>10</v>
@@ -3464,27 +3463,27 @@
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>58530</v>
+        <v>3330</v>
       </c>
       <c r="F98" s="17">
-        <v>58530</v>
+        <v>3330</v>
       </c>
       <c r="G98" s="5">
         <f t="shared" si="3"/>
-        <v>585.29999999999995</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H98" s="17">
-        <f>IF(G98 &lt; 1000, ROUND(G98,-1), IF(G98 &lt; 10000, ROUND(G98,-2), ROUND(G98,-3)))</f>
-        <v>590</v>
+        <f t="shared" ref="H98:H108" si="5">IF(G98 &lt; 1000, ROUND(G98,-1), IF(G98 &lt; 10000, ROUND(G98,-2), ROUND(G98,-3)))</f>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15">
       <c r="A99" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B99">
-        <f>(F6*10)+(F19*5)</f>
-        <v>3310</v>
+        <f>(F98*10)+(F24*15)+(F25*5)</f>
+        <v>83060</v>
       </c>
       <c r="C99" s="3">
         <v>10</v>
@@ -3494,27 +3493,27 @@
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>3330</v>
+        <v>83080</v>
       </c>
       <c r="F99" s="17">
-        <v>3330</v>
+        <v>83080</v>
       </c>
       <c r="G99" s="5">
         <f t="shared" si="3"/>
-        <v>33.299999999999997</v>
+        <v>830.8</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" ref="H99:H109" si="5">IF(G99 &lt; 1000, ROUND(G99,-1), IF(G99 &lt; 10000, ROUND(G99,-2), ROUND(G99,-3)))</f>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>830</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15">
       <c r="A100" s="22" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B100">
-        <f>(F99*10)+(F24*15)+(F25*5)</f>
-        <v>83060</v>
+        <f>(F24*20)+(F25*5)+(F31*5)</f>
+        <v>110735</v>
       </c>
       <c r="C100" s="3">
         <v>10</v>
@@ -3524,27 +3523,27 @@
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>83080</v>
+        <v>110755</v>
       </c>
       <c r="F100" s="17">
-        <v>83080</v>
+        <v>110755</v>
       </c>
       <c r="G100" s="5">
         <f t="shared" si="3"/>
-        <v>830.8</v>
+        <v>1107.55</v>
       </c>
       <c r="H100" s="17">
         <f t="shared" si="5"/>
-        <v>830</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15">
       <c r="A101" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B101">
-        <f>(F24*20)+(F25*5)+(F31*5)</f>
-        <v>110735</v>
+        <f>(F6*20)+(F24*10)+(F27*30)</f>
+        <v>51990</v>
       </c>
       <c r="C101" s="3">
         <v>10</v>
@@ -3554,18 +3553,18 @@
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>110755</v>
+        <v>52010</v>
       </c>
       <c r="F101" s="17">
-        <v>110755</v>
+        <v>52010</v>
       </c>
       <c r="G101" s="5">
         <f t="shared" si="3"/>
-        <v>1107.55</v>
+        <v>520.1</v>
       </c>
       <c r="H101" s="17">
         <f t="shared" si="5"/>
-        <v>1100</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15">
@@ -3573,8 +3572,8 @@
         <v>216</v>
       </c>
       <c r="B102">
-        <f>(F6*20)+(F24*10)+(F27*30)</f>
-        <v>51990</v>
+        <f>SUM(F19*45)+(F7*40)+(F6*20)+(F23*10)</f>
+        <v>25050</v>
       </c>
       <c r="C102" s="3">
         <v>10</v>
@@ -3584,18 +3583,18 @@
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>52010</v>
+        <v>25070</v>
       </c>
       <c r="F102" s="17">
-        <v>52010</v>
+        <v>25070</v>
       </c>
       <c r="G102" s="5">
         <f t="shared" si="3"/>
-        <v>520.1</v>
+        <v>250.7</v>
       </c>
       <c r="H102" s="17">
         <f t="shared" si="5"/>
-        <v>520</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15">
@@ -3603,29 +3602,29 @@
         <v>217</v>
       </c>
       <c r="B103">
-        <f>SUM(F19*45)+(F7*40)+(F6*20)+(F23*10)</f>
-        <v>25050</v>
+        <f>(100*F24)+(20*F25)+(F102*5)</f>
+        <v>440590</v>
       </c>
       <c r="C103" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D103" s="3">
         <v>1</v>
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>25070</v>
+        <v>440620</v>
       </c>
       <c r="F103" s="17">
-        <v>25070</v>
+        <v>440620</v>
       </c>
       <c r="G103" s="5">
         <f t="shared" si="3"/>
-        <v>250.7</v>
+        <v>4406.2</v>
       </c>
       <c r="H103" s="17">
         <f t="shared" si="5"/>
-        <v>250</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15">
@@ -3633,37 +3632,37 @@
         <v>218</v>
       </c>
       <c r="B104">
-        <f>(100*F24)+(20*F25)+(F103*5)</f>
-        <v>440590</v>
+        <f>(F6*10)+(F23*5)</f>
+        <v>3760</v>
       </c>
       <c r="C104" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D104" s="3">
         <v>1</v>
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>440620</v>
+        <v>3780</v>
       </c>
       <c r="F104" s="17">
-        <v>440620</v>
+        <v>3780</v>
       </c>
       <c r="G104" s="5">
         <f t="shared" si="3"/>
-        <v>4406.2</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="H104" s="17">
         <f t="shared" si="5"/>
-        <v>4400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15">
       <c r="A105" s="22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B105">
-        <f>(F6*10)+(F23*5)</f>
+        <f>(10*F6) + (5*F23)</f>
         <v>3760</v>
       </c>
       <c r="C105" s="3">
@@ -3690,41 +3689,41 @@
     </row>
     <row r="106" spans="1:8" ht="15">
       <c r="A106" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B106">
-        <f>(10*F6) + (5*F23)</f>
-        <v>3760</v>
+        <f>F32+(F10*2)</f>
+        <v>2005</v>
       </c>
       <c r="C106" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D106" s="3">
         <v>1</v>
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>3780</v>
+        <v>2016</v>
       </c>
       <c r="F106" s="17">
-        <v>3780</v>
+        <v>2016</v>
       </c>
       <c r="G106" s="5">
         <f t="shared" si="3"/>
-        <v>37.799999999999997</v>
+        <v>20.16</v>
       </c>
       <c r="H106" s="17">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15">
-      <c r="A107" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="12.75">
+      <c r="A107" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B107">
-        <f>F32+(F10*2)</f>
-        <v>2005</v>
+        <f>SUM(F12+(F10*3)+F23)</f>
+        <v>2056</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
@@ -3734,14 +3733,14 @@
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>2016</v>
+        <v>2067</v>
       </c>
       <c r="F107" s="17">
-        <v>2016</v>
+        <v>2067</v>
       </c>
       <c r="G107" s="5">
         <f t="shared" si="3"/>
-        <v>20.16</v>
+        <v>20.67</v>
       </c>
       <c r="H107" s="17">
         <f t="shared" si="5"/>
@@ -3753,57 +3752,27 @@
         <v>221</v>
       </c>
       <c r="B108">
-        <f>SUM(F12+(F10*3)+F23)</f>
-        <v>2056</v>
+        <f>SUM(F6*45)+(F7*45)+(F23*45)</f>
+        <v>29385</v>
       </c>
       <c r="C108" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D108" s="3">
         <v>1</v>
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>2067</v>
+        <v>29400</v>
       </c>
       <c r="F108" s="17">
-        <v>2067</v>
+        <v>29400</v>
       </c>
       <c r="G108" s="5">
         <f t="shared" si="3"/>
-        <v>20.67</v>
+        <v>294</v>
       </c>
       <c r="H108" s="17">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="12.75">
-      <c r="A109" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109">
-        <f>SUM(F6*45)+(F7*45)+(F23*45)</f>
-        <v>29385</v>
-      </c>
-      <c r="C109" s="3">
-        <v>5</v>
-      </c>
-      <c r="D109" s="3">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="1"/>
-        <v>29400</v>
-      </c>
-      <c r="F109" s="17">
-        <v>29400</v>
-      </c>
-      <c r="G109" s="5">
-        <f t="shared" si="3"/>
-        <v>294</v>
-      </c>
-      <c r="H109" s="17">
         <f t="shared" si="5"/>
         <v>290</v>
       </c>
@@ -5292,7 +5261,7 @@
     </row>
     <row r="40" spans="1:24" ht="14.25">
       <c r="A40" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40">
         <f>SUM(G6*100)+(G20*500)+(100*G22)+(G23*100)</f>
@@ -5348,7 +5317,7 @@
     </row>
     <row r="41" spans="1:24" ht="14.25">
       <c r="A41" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41">
         <f>SUM(100*G22)+(G23*100)+(G11*200)+(50*G33)</f>
@@ -5392,7 +5361,7 @@
     </row>
     <row r="42" spans="1:24" ht="28.5">
       <c r="A42" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42">
         <f>SUM(200*G20)+(100*G22)+(G23*100)+(G33*150)</f>
@@ -5436,7 +5405,7 @@
     </row>
     <row r="43" spans="1:24" ht="14.25">
       <c r="A43" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43">
         <f>SUM(300*G22)+(G23*100)+(G33*50)</f>
@@ -5478,12 +5447,12 @@
         <v>1.9781946809572761E-2</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="28.5">
       <c r="A44" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44">
         <f>SUM(G22*500)+(G23*100)+(G33*1500)</f>
@@ -5513,10 +5482,10 @@
         <v>2236700</v>
       </c>
       <c r="J44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="P44" s="16">
         <f t="shared" si="8"/>
@@ -5531,7 +5500,7 @@
         <v>7.429174820065775E-4</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="12.75">
@@ -5542,13 +5511,13 @@
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N45" s="18"/>
     </row>
     <row r="46" spans="1:24" ht="15">
       <c r="A46" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B46">
         <f>(G6*50)+(G21*30)</f>
@@ -5587,12 +5556,12 @@
         <v>15000</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="15">
       <c r="A47" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B47">
         <f>(G6*40)+(G22*40)+(G25*20)</f>
@@ -5637,7 +5606,7 @@
     </row>
     <row r="48" spans="1:24" ht="15">
       <c r="A48" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48">
         <f>SUM(G32*50)+(G22*60)+(G25*40)+(G23*30)</f>
@@ -5679,7 +5648,7 @@
     </row>
     <row r="49" spans="1:21" ht="15">
       <c r="A49" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49">
         <f>(G6*5)+(G21*2)+G28</f>
@@ -5721,7 +5690,7 @@
     </row>
     <row r="50" spans="1:21" ht="15">
       <c r="A50" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B50">
         <f>(G22*200)+(50*G23)</f>
@@ -5763,7 +5732,7 @@
     </row>
     <row r="51" spans="1:21" ht="15">
       <c r="A51" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51">
         <f>(G6*10)+(G21*5)</f>
@@ -5798,7 +5767,7 @@
     </row>
     <row r="52" spans="1:21" ht="15">
       <c r="A52" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B52">
         <f>(G51*10)+(5*G22)+(G23*5)</f>
@@ -5842,7 +5811,7 @@
     </row>
     <row r="53" spans="1:21" ht="15">
       <c r="A53" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B53">
         <f>(G6*10)+(G18*5)</f>
@@ -5872,12 +5841,12 @@
         <v>40</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="15">
       <c r="A54" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B54">
         <f>(G53*10)+(G22*15)+(G23*5)</f>
@@ -5911,18 +5880,18 @@
         <v>47580</v>
       </c>
       <c r="S54" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="T54" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="T54" s="3" t="s">
+      <c r="U54" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="15">
       <c r="A55" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B55">
         <f>(G22*20)+(G23*5)+(G29*5)</f>
@@ -5952,7 +5921,7 @@
         <v>1150</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T55" s="23">
         <v>2000000</v>
@@ -5963,7 +5932,7 @@
     </row>
     <row r="56" spans="1:21" ht="15">
       <c r="A56" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B56">
         <f>(G6*20)+(G22*10)+(G25*30)</f>
@@ -6006,7 +5975,7 @@
     </row>
     <row r="57" spans="1:21" ht="15">
       <c r="A57" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57">
         <f>SUM(G18*45)+(G7*40)+(G6*20)+(G21*10)</f>
@@ -6049,7 +6018,7 @@
     </row>
     <row r="58" spans="1:21" ht="15">
       <c r="A58" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B58">
         <f>(100*G22)+(20*G23)+(G57*5)</f>
@@ -6092,7 +6061,7 @@
     </row>
     <row r="59" spans="1:21" ht="15">
       <c r="A59" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B59">
         <f>(G6*10)+(G21*5)</f>
@@ -6135,7 +6104,7 @@
     </row>
     <row r="60" spans="1:21" ht="15">
       <c r="A60" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B60">
         <f>G30+(G10*2)</f>
@@ -6188,7 +6157,7 @@
     </row>
     <row r="62" spans="1:21" ht="12.75">
       <c r="A62" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B62">
         <f>SUM(G12+(G10*3)+G21)</f>
@@ -6227,7 +6196,7 @@
     </row>
     <row r="63" spans="1:21" ht="12.75">
       <c r="A63" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63">
         <f>SUM(G6*45)+(G7*45)+(G21*45)</f>

--- a/notes/shop costs.xlsx
+++ b/notes/shop costs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="226">
   <si>
     <t>Item</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>Last Updated for 0.18.4</t>
+  </si>
+  <si>
+    <t>atomic bomb</t>
   </si>
 </sst>
 </file>
@@ -823,10 +826,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -834,7 +836,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -843,7 +844,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -855,6 +855,11 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1159,22 +1164,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="24" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="24"/>
+    <col min="7" max="7" width="16.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="24" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
     <col min="13" max="13" width="36" customWidth="1"/>
@@ -1188,7 +1194,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1197,2588 +1203,2714 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="23">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>3.5</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24">
         <f t="shared" ref="E2:E77" si="0">SUM(B2+10+C2)/D2</f>
         <v>13.5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="24">
+        <f>ROUNDUP(E2,0)</f>
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="23">
         <f>(F2*2)</f>
         <v>28</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>3.2</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24">
         <f t="shared" si="0"/>
         <v>41.2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="24">
+        <f t="shared" ref="F3:F65" si="1">ROUNDUP(E3,0)</f>
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="24">
         <f>F2</f>
         <v>14</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3.2</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
         <f t="shared" si="0"/>
         <v>27.2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="24">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="23">
         <f>F2</f>
         <v>14</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>3.2</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
         <f t="shared" si="0"/>
         <v>27.2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="24">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="24">
         <f>SUM(F4*5 )</f>
         <v>140</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>16</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="24">
+        <f t="shared" si="1"/>
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="24">
         <f>SUM(F4*2)</f>
         <v>56</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.5</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
         <f t="shared" si="0"/>
         <v>66.5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="24">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="24">
         <f>SUM(F4+F7)</f>
         <v>95</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="24">
         <f t="shared" si="0"/>
         <v>52.75</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="24">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="24">
         <f>F5</f>
         <v>28</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="24">
         <f t="shared" si="0"/>
         <v>19.25</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="24">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="24">
         <f>SUM(F4+(F9*3))</f>
         <v>88</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="24">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="24">
         <f>F4</f>
         <v>28</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="24">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="24">
         <f>SUM(F6*8)</f>
         <v>1328</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
         <f t="shared" si="0"/>
         <v>1339</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="24">
+        <f t="shared" si="1"/>
         <v>1339</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="24">
         <f>(F18+F2)*10</f>
         <v>270</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>7</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
         <f t="shared" si="0"/>
         <v>287</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="24">
+        <f t="shared" si="1"/>
         <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="24">
         <f>F13*3</f>
         <v>861</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24">
         <f t="shared" si="0"/>
         <v>931</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="24">
+        <f t="shared" si="1"/>
         <v>931</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="23">
         <v>5</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="24">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="24">
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="24">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="25">
         <f>SUM((F16*30)+(F15*30))</f>
         <v>180</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="24">
         <f t="shared" si="0"/>
         <v>95.5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="24">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="25">
         <f>SUM((F17*5)+F4+(F16*100))</f>
         <v>608</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>50</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="24">
         <f t="shared" si="0"/>
         <v>12.38</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="24">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="24">
         <f>SUM(F4+F5)+(F18*20)</f>
         <v>316</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>4</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="24">
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="25">
         <f>SUM(F15*10)</f>
         <v>50</v>
       </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="24">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="24">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="25">
         <f>SUM((F15*20)+14)</f>
         <v>114</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="24">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="24">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="24">
         <f>((F3*5)+(F2)+(F16*100))</f>
         <v>324</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>10</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="24">
         <f t="shared" si="0"/>
         <v>34.4</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="24">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12.75">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="24">
         <f>SUM((F21*2)+(F10*2)+(F9*4))</f>
         <v>404</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="24">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="24">
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="24">
         <f>SUM((F10*20)+(F23*2)+(F18*5))</f>
         <v>2885</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>10</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="24">
         <f t="shared" si="0"/>
         <v>2905</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="24">
+        <f t="shared" si="1"/>
         <v>2905</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="12.75">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="24">
         <f>SUM((F5*20)+(F21*5)+(F6*2))</f>
         <v>1207</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>20</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="24">
         <f t="shared" si="0"/>
         <v>1237</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="24">
+        <f t="shared" si="1"/>
         <v>1237</v>
       </c>
-      <c r="J25" s="13"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="12.75">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="24">
         <f>SUM(F6+F7+(F11*2))</f>
         <v>311</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>10</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24">
         <f t="shared" si="0"/>
         <v>331</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="24">
+        <f t="shared" si="1"/>
         <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="24">
         <f>SUM((F10*2)+F26+(F20*15))</f>
         <v>634</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>10</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
         <f t="shared" si="0"/>
         <v>654</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="24">
+        <f t="shared" si="1"/>
         <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.75">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="24">
         <f>SUM(F15*10)</f>
         <v>50</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="24">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="24">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.75">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="24">
         <f>SUM(F28*10)</f>
         <v>620</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>30</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="24">
+        <f t="shared" si="1"/>
         <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.75">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="24">
         <f>SUM(F5*5)+(F6*5)+(F10*15)</f>
         <v>2455</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>10</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
         <f t="shared" si="0"/>
         <v>2475</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="24">
+        <f t="shared" si="1"/>
         <v>2475</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12.75">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="24">
         <f>SUM(F6*20)+(F19*12+(F10*20))</f>
         <v>9260</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>20</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="24">
         <f t="shared" si="0"/>
         <v>9290</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="24">
+        <f t="shared" si="1"/>
         <v>9290</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="24">
         <f>SUM(F27+F6+(F19*2)+(F10*3))</f>
         <v>1777</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>20</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="24">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="24">
+        <f t="shared" si="1"/>
         <v>1807</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="12.75">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="24">
         <f>SUM(F10*5)+(F23*5)</f>
         <v>2595</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>15</v>
       </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="24">
         <f t="shared" si="0"/>
         <v>2620</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="24">
+        <f t="shared" si="1"/>
         <v>2620</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="12.75">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="24">
         <f>SUM(F23*5)+(F33*4)+(F24*5)</f>
         <v>27105</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>30</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="24">
         <f t="shared" si="0"/>
         <v>27145</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="24">
+        <f t="shared" si="1"/>
         <v>27145</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="12.75">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="24">
         <f>SUM(F34*5)+(F23*5)+(F24*5)</f>
         <v>152350</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>60</v>
       </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="24">
         <f t="shared" si="0"/>
         <v>152420</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="24">
+        <f t="shared" si="1"/>
         <v>152420</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="12.75">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="24">
         <f>(F24*1) + (F33*1)</f>
         <v>5525</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>30</v>
       </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="24">
         <f t="shared" si="0"/>
         <v>5565</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="24">
+        <f t="shared" si="1"/>
         <v>5565</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="H36" s="23"/>
+      <c r="J36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" ht="12.75">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="24">
         <f>((F4*10) + (F14*1) + (F13*19))</f>
         <v>6664</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>10</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="24">
         <f t="shared" si="0"/>
         <v>668.4</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="24">
+        <f t="shared" si="1"/>
         <v>669</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
-      <c r="J37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="Q37" s="3"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="14"/>
+      <c r="J37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" ht="12.75">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="24">
         <f>(F36*10*100) + (F29*10*100) + (F25*10*100)</f>
         <v>7462000</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>60</v>
       </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="24">
         <f t="shared" si="0"/>
         <v>7462070</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="24">
+        <f t="shared" si="1"/>
         <v>7462070</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="17"/>
-      <c r="J38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="14"/>
+      <c r="J38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="1:17" ht="12.75">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="24">
         <f>(F4*4)</f>
         <v>112</v>
       </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="24">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="24">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="5"/>
-      <c r="J39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="Q39" s="3"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="23"/>
+      <c r="J39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17" ht="12.75">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="24">
         <f>(F5*5)+(F6)+(F39)</f>
         <v>429</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>3</v>
       </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="24">
         <f t="shared" si="0"/>
         <v>442</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="24">
+        <f t="shared" si="1"/>
         <v>442</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="5"/>
-      <c r="J40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="23"/>
+      <c r="J40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" ht="12.75">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="24">
         <f>(F40)+(F13)</f>
         <v>729</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>10</v>
       </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="24">
         <f t="shared" si="0"/>
         <v>749</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="24">
+        <f t="shared" si="1"/>
         <v>749</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="5"/>
-      <c r="J41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="Q41" s="3"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="23"/>
+      <c r="J41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="1:17" ht="12.75">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="24">
         <f>((F2)+(F17)+(F16*10))</f>
         <v>120</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>4</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>2</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="24">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="24">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="5"/>
-      <c r="J42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="23"/>
+      <c r="J42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="1:17" ht="12.75">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="24">
         <f>((F42)+(F10)+(F4))*2</f>
         <v>388</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>8</v>
       </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="24">
         <f t="shared" si="0"/>
         <v>406</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="24">
+        <f t="shared" si="1"/>
         <v>406</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="5"/>
-      <c r="J43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="23"/>
+      <c r="J43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="1:17" ht="12.75">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="24">
         <f>(F43)+(F42*2)</f>
         <v>540</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>8</v>
       </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="24">
         <f t="shared" si="0"/>
         <v>558</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="24">
+        <f t="shared" si="1"/>
         <v>558</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="5"/>
-      <c r="J44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="23"/>
+      <c r="J44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17" ht="12.75">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="24">
         <f>((F42)+(F6)+(F21))*2</f>
         <v>592</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>8</v>
       </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="24">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="24">
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="5"/>
-      <c r="J45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="23"/>
+      <c r="J45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="1:17" ht="12.75">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="24">
         <f>(F4*10)+(F7*5)+(F10*5)</f>
         <v>1110</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>0.5</v>
       </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="24">
         <f t="shared" si="0"/>
         <v>1120.5</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="24">
+        <f t="shared" si="1"/>
         <v>1121</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="5"/>
-      <c r="J46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="23"/>
+      <c r="J46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="1:17" ht="12.75">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="24">
         <f>(F46)+(F45*4)+(F42*8)</f>
         <v>4097</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>15</v>
       </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="24">
         <f t="shared" si="0"/>
         <v>4122</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="24">
+        <f t="shared" si="1"/>
         <v>4122</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="5"/>
-      <c r="J47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="Q47" s="3"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="23"/>
+      <c r="J47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="Q47" s="2"/>
     </row>
     <row r="48" spans="1:17" ht="12.75">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="24">
         <f>(F23*20)+(F22*60)+(F6*60)+(F7*40)</f>
         <v>23140</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>40</v>
       </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="24">
         <f t="shared" si="0"/>
         <v>23190</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="24">
+        <f t="shared" si="1"/>
         <v>23190</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="5"/>
-      <c r="J48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="23"/>
+      <c r="J48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17" ht="12.75">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="24">
         <f>((F22)+(F23)+(F6)+(F5))*500</f>
         <v>324500</v>
       </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
-      <c r="E49">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="24">
         <f t="shared" si="0"/>
         <v>324511</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="24">
+        <f t="shared" si="1"/>
         <v>324511</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="5"/>
-      <c r="J49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="23"/>
+      <c r="J49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:17" ht="12.75">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="24">
         <f>(F4)*20+(F5)*10+(F7)*10</f>
         <v>1510</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>8</v>
       </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="24">
         <f t="shared" si="0"/>
         <v>1528</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="24">
+        <f t="shared" si="1"/>
         <v>1528</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="5"/>
-      <c r="J50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="23"/>
+      <c r="J50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="Q50" s="2"/>
     </row>
     <row r="51" spans="1:17" ht="12.75">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="24">
         <f>(F9*5)+(F10*5)</f>
         <v>595</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>0.5</v>
       </c>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="24">
         <f t="shared" si="0"/>
         <v>605.5</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="24">
+        <f t="shared" si="1"/>
         <v>606</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="5"/>
-      <c r="J51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="Q51" s="3"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="23"/>
+      <c r="J51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="Q51" s="2"/>
     </row>
     <row r="52" spans="1:17" ht="12.75">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="24">
         <f>(F9)+(F10)</f>
         <v>119</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>0.5</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="24">
         <f t="shared" si="0"/>
         <v>129.5</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="24">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="5"/>
-      <c r="J52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="23"/>
+      <c r="J52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="Q52" s="2"/>
     </row>
     <row r="53" spans="1:17" ht="12.75">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="24">
         <f>(F5)*5+(F6)*5+(F10)*15</f>
         <v>2455</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>10</v>
       </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="24">
         <f t="shared" si="0"/>
         <v>2475</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="24">
+        <f t="shared" si="1"/>
         <v>2475</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="5"/>
-      <c r="J53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="Q53" s="3"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="23"/>
+      <c r="J53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="Q53" s="2"/>
     </row>
     <row r="54" spans="1:17" ht="12.75">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="24">
         <f>(F4*2)+(F19*5)</f>
         <v>1706</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>10</v>
       </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="24">
         <f t="shared" si="0"/>
         <v>1726</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="24">
+        <f t="shared" si="1"/>
         <v>1726</v>
       </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="5"/>
-      <c r="J54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="Q54" s="3"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="23"/>
+      <c r="J54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="1:17" ht="12.75">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="24">
         <f>(F25*100)+(F53*100)+(F54*100)+(F2*100)+(F29*50)</f>
         <v>578200</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>5</v>
       </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="24">
         <f t="shared" si="0"/>
         <v>578215</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="24">
+        <f t="shared" si="1"/>
         <v>578215</v>
       </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="5"/>
-      <c r="J55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="Q55" s="3"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="23"/>
+      <c r="J55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="Q55" s="2"/>
     </row>
     <row r="56" spans="1:17" ht="12.75">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="24">
         <f>(F10*10)+(F7*10)+(F8*4)</f>
         <v>1872</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>2</v>
       </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="24">
         <f t="shared" si="0"/>
         <v>1884</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="24">
+        <f t="shared" si="1"/>
         <v>1884</v>
       </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="5"/>
-      <c r="J56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="23"/>
+      <c r="J56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="Q56" s="2"/>
     </row>
     <row r="57" spans="1:17" ht="12.75">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="24">
         <f>(F6)*10+(F5)*20</f>
         <v>2220</v>
       </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57">
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="24">
         <f t="shared" si="0"/>
         <v>2231</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="24">
+        <f t="shared" si="1"/>
         <v>2231</v>
       </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="5"/>
-      <c r="J57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="Q57" s="3"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="23"/>
+      <c r="J57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="Q57" s="2"/>
     </row>
     <row r="58" spans="1:17" ht="12.75">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="24">
         <f>(F6)*10+(F5)*100+(F10)*10</f>
         <v>5450</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>3</v>
       </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="24">
         <f t="shared" si="0"/>
         <v>5463</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="24">
+        <f t="shared" si="1"/>
         <v>5463</v>
       </c>
-      <c r="G58" s="17"/>
-      <c r="H58" s="5"/>
-      <c r="J58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="Q58" s="3"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="23"/>
+      <c r="J58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="Q58" s="2"/>
     </row>
     <row r="59" spans="1:17" ht="12.75">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="24">
         <f>(F7)*50+(F5)*50+(F11)*20</f>
         <v>5530</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>3</v>
       </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="24">
         <f t="shared" si="0"/>
         <v>5543</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="24">
+        <f t="shared" si="1"/>
         <v>5543</v>
       </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="5"/>
-      <c r="J59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="Q59" s="3"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="23"/>
+      <c r="J59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="Q59" s="2"/>
     </row>
     <row r="60" spans="1:17" ht="18" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="24">
         <f>(F4)*5+(F2)*10</f>
         <v>280</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>8</v>
       </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="24">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="24">
+        <f t="shared" si="1"/>
         <v>298</v>
       </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="5"/>
-      <c r="J60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="Q60" s="3"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="23"/>
+      <c r="J60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="Q60" s="2"/>
     </row>
     <row r="61" spans="1:17" ht="12.75">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="24">
         <f>(F60)*7+(F42)*5+(F6)*5</f>
         <v>3251</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>8</v>
       </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="24">
         <f t="shared" si="0"/>
         <v>3269</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="24">
+        <f t="shared" si="1"/>
         <v>3269</v>
       </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="5"/>
-      <c r="J61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="Q61" s="3"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="23"/>
+      <c r="J61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="Q61" s="2"/>
     </row>
     <row r="62" spans="1:17" ht="12.75">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="24">
         <f>F4+F7+F10</f>
         <v>194</v>
       </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="24">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="24">
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="G62" s="17"/>
-      <c r="H62" s="5"/>
-      <c r="J62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="Q62" s="3"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="23"/>
+      <c r="J62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="Q62" s="2"/>
     </row>
     <row r="63" spans="1:17" ht="12.75">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="24">
         <f>F3*5</f>
         <v>210</v>
       </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
-      <c r="E63">
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="24">
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="24">
+        <f t="shared" si="1"/>
         <v>221</v>
       </c>
-      <c r="G63" s="17"/>
-      <c r="H63" s="5"/>
-      <c r="J63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="Q63" s="3"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="23"/>
+      <c r="J63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="Q63" s="2"/>
     </row>
     <row r="64" spans="1:17" ht="12.75">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="24">
         <f>F6+F2+(F4)</f>
         <v>208</v>
       </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
         <v>2</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="24">
         <f t="shared" si="0"/>
         <v>109.5</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="24">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="G64" s="17"/>
-      <c r="H64" s="5"/>
-      <c r="J64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="Q64" s="3"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="23"/>
+      <c r="J64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="Q64" s="2"/>
     </row>
     <row r="65" spans="1:17" ht="12.75">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="24">
         <f>(F7)*5+(F10)*3+(F4)*10</f>
         <v>912</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>2</v>
       </c>
-      <c r="D65" s="3">
-        <v>1</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="24">
         <f t="shared" si="0"/>
         <v>924</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="24">
+        <f t="shared" si="1"/>
         <v>924</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="5"/>
-      <c r="J65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="Q65" s="3"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="23"/>
+      <c r="J65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="Q65" s="2"/>
     </row>
     <row r="66" spans="1:17" ht="12.75">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="24">
         <f>(F10)*3+(F7)*5+(F4)*9</f>
         <v>884</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>0.5</v>
       </c>
-      <c r="D66" s="3">
-        <v>1</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="24">
         <f t="shared" si="0"/>
         <v>894.5</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="24">
+        <f t="shared" ref="F66:F77" si="2">ROUNDUP(E66,0)</f>
         <v>895</v>
       </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="5"/>
-      <c r="J66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="Q66" s="3"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="23"/>
+      <c r="J66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="Q66" s="2"/>
     </row>
     <row r="67" spans="1:17" ht="12.75">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="24">
         <f>(F6)*2+(F10)*3+(F7)*5+(F66)</f>
         <v>1859</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>0.5</v>
       </c>
-      <c r="D67" s="3">
-        <v>1</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="24">
         <f t="shared" si="0"/>
         <v>1869.5</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="24">
+        <f t="shared" si="2"/>
         <v>1870</v>
       </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="5"/>
-      <c r="J67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="Q67" s="3"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="23"/>
+      <c r="J67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="Q67" s="2"/>
     </row>
     <row r="68" spans="1:17" ht="12.75">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="24">
         <f>(F6)*15+(F7)*10+(F3)*10+(F10)*10+(F11)*10</f>
         <v>4960</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>8</v>
       </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="24">
         <f t="shared" si="0"/>
         <v>4978</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="24">
+        <f t="shared" si="2"/>
         <v>4978</v>
       </c>
-      <c r="G68" s="17"/>
-      <c r="H68" s="5"/>
-      <c r="J68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="Q68" s="3"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="23"/>
+      <c r="J68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="Q68" s="2"/>
     </row>
     <row r="69" spans="1:17" ht="12.75">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="24">
         <f>(F23*5) + (F6*10) + (F3*10)</f>
         <v>4180</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>5</v>
       </c>
-      <c r="D69" s="3">
-        <v>1</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="24">
         <f t="shared" si="0"/>
         <v>4195</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="24">
+        <f t="shared" si="2"/>
         <v>4195</v>
       </c>
-      <c r="G69" s="17"/>
-      <c r="H69" s="5"/>
-      <c r="J69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="Q69" s="3"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="23"/>
+      <c r="J69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="Q69" s="2"/>
     </row>
     <row r="70" spans="1:17" ht="12.75">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="24">
         <f>F5 + F7</f>
         <v>95</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>5</v>
       </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
-      <c r="E70">
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="24">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="24">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="G70" s="17"/>
-      <c r="H70" s="5"/>
-      <c r="J70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="Q70" s="3"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="23"/>
+      <c r="J70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="Q70" s="2"/>
     </row>
     <row r="71" spans="1:17" ht="12.75">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="24">
         <f>F8 + F62</f>
         <v>258</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>6</v>
       </c>
-      <c r="D71" s="3">
-        <v>1</v>
-      </c>
-      <c r="E71">
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="24">
         <f t="shared" si="0"/>
         <v>274</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="24">
+        <f t="shared" si="2"/>
         <v>274</v>
       </c>
-      <c r="G71" s="17"/>
-      <c r="H71" s="5"/>
-      <c r="J71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="Q71" s="3"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="23"/>
+      <c r="J71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="Q71" s="2"/>
     </row>
     <row r="72" spans="1:17" ht="12.75">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="24">
         <f>F60+F40+(F63*2)</f>
         <v>1182</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>10</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>2</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="24">
         <f t="shared" si="0"/>
         <v>601</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="24">
+        <f t="shared" si="2"/>
         <v>601</v>
       </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="5"/>
-      <c r="J72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="Q72" s="3"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="23"/>
+      <c r="J72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="Q72" s="2"/>
     </row>
     <row r="73" spans="1:17" ht="12.75">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="24">
         <f>(F23*3) + (F26*2) + F28</f>
         <v>1984</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>24</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>2</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="24">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="24">
+        <f t="shared" si="2"/>
         <v>1009</v>
       </c>
-      <c r="G73" s="17"/>
-      <c r="H73" s="5"/>
-      <c r="J73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="Q73" s="3"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="23"/>
+      <c r="J73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="Q73" s="2"/>
     </row>
     <row r="74" spans="1:17" ht="12.75">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="24">
         <f>F33+F69+(F64*30)</f>
         <v>10115</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>21</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>3</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="24">
         <f t="shared" si="0"/>
         <v>3382</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="24">
+        <f t="shared" si="2"/>
         <v>3382</v>
       </c>
-      <c r="G74" s="17"/>
-      <c r="H74" s="5"/>
-      <c r="J74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="Q74" s="3"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="23"/>
+      <c r="J74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="Q74" s="2"/>
     </row>
     <row r="75" spans="1:17" ht="12.75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="24">
         <f>F32+(F25*3)+(F24*2)</f>
         <v>11328</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>21</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>3</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="24">
         <f t="shared" si="0"/>
         <v>3786.3333333333335</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="24">
+        <f t="shared" si="2"/>
         <v>3787</v>
       </c>
-      <c r="G75" s="17"/>
-      <c r="H75" s="5"/>
-      <c r="J75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="Q75" s="3"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="23"/>
+      <c r="J75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="Q75" s="2"/>
     </row>
     <row r="76" spans="1:17" ht="12.75">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="14">
         <f>F38+F55</f>
         <v>8040285</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <v>60</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>1000</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="24">
         <f t="shared" si="0"/>
         <v>8040.3549999999996</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="24">
+        <f t="shared" si="2"/>
         <v>8041</v>
       </c>
-      <c r="G76" s="17"/>
-      <c r="H76" s="5"/>
-      <c r="J76" s="3"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="23"/>
+      <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:17" ht="12.75">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="24">
         <f>SUM(F70:F76)</f>
         <v>17204</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>0</v>
       </c>
-      <c r="D77" s="3">
-        <v>1</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="24">
         <f t="shared" si="0"/>
         <v>17214</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="24">
+        <f t="shared" si="2"/>
         <v>17214</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="17"/>
-      <c r="J77" s="3"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="14"/>
+      <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:17" ht="12.75">
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="5"/>
-      <c r="J78" s="3"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="23"/>
+      <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:17" ht="12.75">
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="5"/>
-      <c r="J79" s="3"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="23"/>
+      <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:17" ht="14.25">
-      <c r="A80" s="20"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="17"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
+      <c r="A80" s="17"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="14"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
     </row>
     <row r="81" spans="1:15" ht="14.25">
-      <c r="A81" s="20"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="17"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
+      <c r="A81" s="17"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
     </row>
     <row r="82" spans="1:15" ht="14.25">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="17"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="14"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
     </row>
     <row r="83" spans="1:15" ht="14.25">
-      <c r="A83" s="20"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="17"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
+      <c r="A83" s="17"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="14"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
     </row>
     <row r="84" spans="1:15" ht="14.25">
-      <c r="A84" s="20"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="17"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
+      <c r="A84" s="17"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
     </row>
     <row r="85" spans="1:15" ht="14.25">
-      <c r="A85" s="20"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="17"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
+      <c r="A85" s="17"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="14"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
     </row>
     <row r="86" spans="1:15" ht="14.25">
-      <c r="A86" s="20"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="17"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
+      <c r="A86" s="17"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
     </row>
     <row r="87" spans="1:15" ht="14.25">
-      <c r="A87" s="20"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="17"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
+      <c r="A87" s="17"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
     </row>
     <row r="88" spans="1:15" ht="14.25">
-      <c r="A88" s="20"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="17"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
+      <c r="A88" s="17"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
     </row>
     <row r="89" spans="1:15" ht="14.25">
-      <c r="A89" s="20"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="17"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
+      <c r="A89" s="17"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
     </row>
     <row r="90" spans="1:15" ht="12.75">
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:15" ht="15">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="24">
         <f>(F6*50)+(F23*30)</f>
         <v>20900</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <v>15</v>
       </c>
-      <c r="D91" s="3">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <f t="shared" ref="E91:E108" si="1">SUM(B91+10+C91)/D91</f>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+      <c r="E91" s="24">
+        <f t="shared" ref="E91:E109" si="3">SUM(B91+10+C91)/D91</f>
         <v>20925</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91" s="24">
+        <f t="shared" ref="F91:F109" si="4">ROUNDUP(E91,0)</f>
         <v>20925</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="23">
         <f>F91/100</f>
         <v>209.25</v>
       </c>
-      <c r="H91" s="17">
-        <f t="shared" ref="H91:H92" si="2">IF(G91 &lt; 1000, ROUND(G91,-1), IF(G91 &lt; 10000, ROUND(G91,-2), ROUND(G91,-3)))</f>
+      <c r="H91" s="14">
+        <f t="shared" ref="H91:H92" si="5">IF(G91 &lt; 1000, ROUND(G91,-1), IF(G91 &lt; 10000, ROUND(G91,-2), ROUND(G91,-3)))</f>
         <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="15">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="24">
         <f>(F6*40)+(F24*40)+(F27*20)</f>
         <v>135920</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <v>20</v>
       </c>
-      <c r="D92" s="3">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="1"/>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="24">
+        <f t="shared" si="3"/>
         <v>135950</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="24">
+        <f t="shared" si="4"/>
         <v>135950</v>
       </c>
-      <c r="G92" s="5">
-        <f t="shared" ref="G92:G108" si="3">F92/100</f>
+      <c r="G92" s="23">
+        <f t="shared" ref="G92:G108" si="6">F92/100</f>
         <v>1359.5</v>
       </c>
-      <c r="H92" s="17">
-        <f t="shared" si="2"/>
+      <c r="H92" s="14">
+        <f t="shared" si="5"/>
         <v>1400</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="24">
         <f>SUM(F34*50)+(F24*60)+(F27*40)+(F25*30)</f>
         <v>1594820</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <v>25</v>
       </c>
-      <c r="D93" s="3">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="1"/>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="24">
+        <f t="shared" si="3"/>
         <v>1594855</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="24">
+        <f t="shared" si="4"/>
         <v>1594855</v>
       </c>
-      <c r="G93" s="5">
-        <f t="shared" si="3"/>
+      <c r="G93" s="23">
+        <f t="shared" si="6"/>
         <v>15948.55</v>
       </c>
-      <c r="H93" s="17">
+      <c r="H93" s="14">
         <f>IF(G93 &lt; 1000, ROUND(G93,-1), IF(G93 &lt; 10000, ROUND(G93,-2), ROUND(G93,-3)))</f>
         <v>16000</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="15">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="24">
         <f>(F6*5)+(F23*2)+F30</f>
         <v>4145</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>10</v>
       </c>
-      <c r="D94" s="3">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="1"/>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+      <c r="E94" s="24">
+        <f t="shared" si="3"/>
         <v>4165</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="24">
+        <f t="shared" si="4"/>
         <v>4165</v>
       </c>
-      <c r="G94" s="5">
-        <f t="shared" si="3"/>
+      <c r="G94" s="23">
+        <f t="shared" si="6"/>
         <v>41.65</v>
       </c>
-      <c r="H94" s="17">
-        <f t="shared" ref="H94:H96" si="4">IF(G94 &lt; 1000, ROUND(G94,-1), IF(G94 &lt; 10000, ROUND(G94,-2), ROUND(G94,-3)))</f>
+      <c r="H94" s="14">
+        <f t="shared" ref="H94:H96" si="7">IF(G94 &lt; 1000, ROUND(G94,-1), IF(G94 &lt; 10000, ROUND(G94,-2), ROUND(G94,-3)))</f>
         <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="15">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="24">
         <f>(F24*200)+(50*F25)</f>
         <v>642850</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <v>10</v>
       </c>
-      <c r="D95" s="3">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="1"/>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" s="24">
+        <f t="shared" si="3"/>
         <v>642870</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F95" s="24">
+        <f t="shared" si="4"/>
         <v>642870</v>
       </c>
-      <c r="G95" s="5">
-        <f t="shared" si="3"/>
+      <c r="G95" s="23">
+        <f t="shared" si="6"/>
         <v>6428.7</v>
       </c>
-      <c r="H95" s="17">
-        <f t="shared" si="4"/>
+      <c r="H95" s="14">
+        <f t="shared" si="7"/>
         <v>6400</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="24">
         <f>(F6*10)+(F23*5)</f>
         <v>3760</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
         <v>10</v>
       </c>
-      <c r="D96" s="3">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="1"/>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+      <c r="E96" s="24">
+        <f t="shared" si="3"/>
         <v>3780</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="24">
+        <f t="shared" si="4"/>
         <v>3780</v>
       </c>
-      <c r="G96" s="5">
-        <f t="shared" si="3"/>
+      <c r="G96" s="23">
+        <f t="shared" si="6"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="H96" s="17">
-        <f t="shared" si="4"/>
+      <c r="H96" s="14">
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="24">
         <f>(F96*10)+(5*F24)+(F25*5)</f>
         <v>58510</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <v>10</v>
       </c>
-      <c r="D97" s="3">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="1"/>
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
+      <c r="E97" s="24">
+        <f t="shared" si="3"/>
         <v>58530</v>
       </c>
-      <c r="F97" s="17">
+      <c r="F97" s="24">
+        <f t="shared" si="4"/>
         <v>58530</v>
       </c>
-      <c r="G97" s="5">
-        <f t="shared" si="3"/>
+      <c r="G97" s="23">
+        <f t="shared" si="6"/>
         <v>585.29999999999995</v>
       </c>
-      <c r="H97" s="17">
+      <c r="H97" s="14">
         <f>IF(G97 &lt; 1000, ROUND(G97,-1), IF(G97 &lt; 10000, ROUND(G97,-2), ROUND(G97,-3)))</f>
         <v>590</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="24">
         <f>(F6*10)+(F19*5)</f>
         <v>3310</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
         <v>10</v>
       </c>
-      <c r="D98" s="3">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="1"/>
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+      <c r="E98" s="24">
+        <f t="shared" si="3"/>
         <v>3330</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="24">
+        <f t="shared" si="4"/>
         <v>3330</v>
       </c>
-      <c r="G98" s="5">
-        <f t="shared" si="3"/>
+      <c r="G98" s="23">
+        <f t="shared" si="6"/>
         <v>33.299999999999997</v>
       </c>
-      <c r="H98" s="17">
-        <f t="shared" ref="H98:H108" si="5">IF(G98 &lt; 1000, ROUND(G98,-1), IF(G98 &lt; 10000, ROUND(G98,-2), ROUND(G98,-3)))</f>
+      <c r="H98" s="14">
+        <f t="shared" ref="H98:H108" si="8">IF(G98 &lt; 1000, ROUND(G98,-1), IF(G98 &lt; 10000, ROUND(G98,-2), ROUND(G98,-3)))</f>
         <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="24">
         <f>(F98*10)+(F24*15)+(F25*5)</f>
         <v>83060</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <v>10</v>
       </c>
-      <c r="D99" s="3">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="1"/>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+      <c r="E99" s="24">
+        <f t="shared" si="3"/>
         <v>83080</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99" s="24">
+        <f t="shared" si="4"/>
         <v>83080</v>
       </c>
-      <c r="G99" s="5">
-        <f t="shared" si="3"/>
+      <c r="G99" s="23">
+        <f t="shared" si="6"/>
         <v>830.8</v>
       </c>
-      <c r="H99" s="17">
-        <f t="shared" si="5"/>
+      <c r="H99" s="14">
+        <f t="shared" si="8"/>
         <v>830</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="24">
         <f>(F24*20)+(F25*5)+(F31*5)</f>
         <v>110735</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="2">
         <v>10</v>
       </c>
-      <c r="D100" s="3">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="1"/>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" s="24">
+        <f t="shared" si="3"/>
         <v>110755</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="24">
+        <f t="shared" si="4"/>
         <v>110755</v>
       </c>
-      <c r="G100" s="5">
-        <f t="shared" si="3"/>
+      <c r="G100" s="23">
+        <f t="shared" si="6"/>
         <v>1107.55</v>
       </c>
-      <c r="H100" s="17">
-        <f t="shared" si="5"/>
+      <c r="H100" s="14">
+        <f t="shared" si="8"/>
         <v>1100</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="24">
         <f>(F6*20)+(F24*10)+(F27*30)</f>
         <v>51990</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="2">
         <v>10</v>
       </c>
-      <c r="D101" s="3">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="1"/>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="24">
+        <f t="shared" si="3"/>
         <v>52010</v>
       </c>
-      <c r="F101" s="17">
+      <c r="F101" s="24">
+        <f t="shared" si="4"/>
         <v>52010</v>
       </c>
-      <c r="G101" s="5">
-        <f t="shared" si="3"/>
+      <c r="G101" s="23">
+        <f t="shared" si="6"/>
         <v>520.1</v>
       </c>
-      <c r="H101" s="17">
-        <f t="shared" si="5"/>
+      <c r="H101" s="14">
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="24">
         <f>SUM(F19*45)+(F7*40)+(F6*20)+(F23*10)</f>
         <v>25050</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="2">
         <v>10</v>
       </c>
-      <c r="D102" s="3">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="1"/>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+      <c r="E102" s="24">
+        <f t="shared" si="3"/>
         <v>25070</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="24">
+        <f t="shared" si="4"/>
         <v>25070</v>
       </c>
-      <c r="G102" s="5">
-        <f t="shared" si="3"/>
+      <c r="G102" s="23">
+        <f t="shared" si="6"/>
         <v>250.7</v>
       </c>
-      <c r="H102" s="17">
-        <f t="shared" si="5"/>
+      <c r="H102" s="14">
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="24">
         <f>(100*F24)+(20*F25)+(F102*5)</f>
         <v>440590</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="2">
         <v>20</v>
       </c>
-      <c r="D103" s="3">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="1"/>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+      <c r="E103" s="24">
+        <f t="shared" si="3"/>
         <v>440620</v>
       </c>
-      <c r="F103" s="17">
+      <c r="F103" s="24">
+        <f t="shared" si="4"/>
         <v>440620</v>
       </c>
-      <c r="G103" s="5">
-        <f t="shared" si="3"/>
+      <c r="G103" s="23">
+        <f t="shared" si="6"/>
         <v>4406.2</v>
       </c>
-      <c r="H103" s="17">
-        <f t="shared" si="5"/>
+      <c r="H103" s="14">
+        <f t="shared" si="8"/>
         <v>4400</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="24">
         <f>(F6*10)+(F23*5)</f>
         <v>3760</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="2">
         <v>10</v>
       </c>
-      <c r="D104" s="3">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="1"/>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+      <c r="E104" s="24">
+        <f t="shared" si="3"/>
         <v>3780</v>
       </c>
-      <c r="F104" s="17">
+      <c r="F104" s="24">
+        <f t="shared" si="4"/>
         <v>3780</v>
       </c>
-      <c r="G104" s="5">
-        <f t="shared" si="3"/>
+      <c r="G104" s="23">
+        <f t="shared" si="6"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="H104" s="17">
-        <f t="shared" si="5"/>
+      <c r="H104" s="14">
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="24">
         <f>(10*F6) + (5*F23)</f>
         <v>3760</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="2">
         <v>10</v>
       </c>
-      <c r="D105" s="3">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="1"/>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+      <c r="E105" s="24">
+        <f t="shared" si="3"/>
         <v>3780</v>
       </c>
-      <c r="F105" s="17">
+      <c r="F105" s="24">
+        <f t="shared" si="4"/>
         <v>3780</v>
       </c>
-      <c r="G105" s="5">
-        <f t="shared" si="3"/>
+      <c r="G105" s="23">
+        <f t="shared" si="6"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="H105" s="17">
-        <f t="shared" si="5"/>
+      <c r="H105" s="14">
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="24">
         <f>F32+(F10*2)</f>
         <v>2005</v>
       </c>
-      <c r="C106" s="3">
-        <v>1</v>
-      </c>
-      <c r="D106" s="3">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="1"/>
+      <c r="C106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+      <c r="E106" s="24">
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
-      <c r="F106" s="17">
+      <c r="F106" s="24">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="G106" s="5">
-        <f t="shared" si="3"/>
+      <c r="G106" s="23">
+        <f t="shared" si="6"/>
         <v>20.16</v>
       </c>
-      <c r="H106" s="17">
-        <f t="shared" si="5"/>
+      <c r="H106" s="14">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="12.75">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="24">
         <f>SUM(F12+(F10*3)+F23)</f>
         <v>2056</v>
       </c>
-      <c r="C107" s="3">
-        <v>1</v>
-      </c>
-      <c r="D107" s="3">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="1"/>
+      <c r="C107" s="2">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+      <c r="E107" s="24">
+        <f t="shared" si="3"/>
         <v>2067</v>
       </c>
-      <c r="F107" s="17">
+      <c r="F107" s="24">
+        <f t="shared" si="4"/>
         <v>2067</v>
       </c>
-      <c r="G107" s="5">
-        <f t="shared" si="3"/>
+      <c r="G107" s="23">
+        <f t="shared" si="6"/>
         <v>20.67</v>
       </c>
-      <c r="H107" s="17">
-        <f t="shared" si="5"/>
+      <c r="H107" s="14">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="12.75">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="24">
         <f>SUM(F6*45)+(F7*45)+(F23*45)</f>
         <v>29385</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="2">
         <v>5</v>
       </c>
-      <c r="D108" s="3">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="1"/>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+      <c r="E108" s="24">
+        <f t="shared" si="3"/>
         <v>29400</v>
       </c>
-      <c r="F108" s="17">
+      <c r="F108" s="24">
+        <f t="shared" si="4"/>
         <v>29400</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="23">
+        <f t="shared" si="6"/>
+        <v>294</v>
+      </c>
+      <c r="H108" s="14">
+        <f t="shared" si="8"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A109" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" s="24">
+        <f>(F42*10)+(F36*10)+(F14*30)</f>
+        <v>84250</v>
+      </c>
+      <c r="C109" s="2">
+        <v>50</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+      <c r="E109" s="24">
         <f t="shared" si="3"/>
-        <v>294</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="5"/>
-        <v>290</v>
+        <v>84310</v>
+      </c>
+      <c r="F109" s="24">
+        <f t="shared" si="4"/>
+        <v>84310</v>
+      </c>
+      <c r="G109" s="23">
+        <f t="shared" ref="G109" si="9">F109/100</f>
+        <v>843.1</v>
+      </c>
+      <c r="H109" s="14">
+        <f t="shared" ref="H109" si="10">IF(G109 &lt; 1000, ROUND(G109,-1), IF(G109 &lt; 10000, ROUND(G109,-2), ROUND(G109,-3)))</f>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3808,54 +3940,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="4">
         <v>10002700</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>3.5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2">
@@ -3865,40 +3997,40 @@
       <c r="G2">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>500</v>
       </c>
       <c r="Q2">
         <f>P2*20</f>
         <v>10000</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <v>15000000</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>3.5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3">
@@ -3908,38 +4040,38 @@
       <c r="G3">
         <v>14</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>500</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>10000</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="3"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B5" si="1">G2</f>
         <v>14</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
         <v>3.2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4">
@@ -3949,37 +4081,37 @@
       <c r="G4">
         <v>28</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>100</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>2000</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>3.2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5">
@@ -3989,28 +4121,28 @@
       <c r="G5">
         <v>28</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B6">
         <f>SUM(G4*5 )</f>
         <v>140</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6">
@@ -4020,28 +4152,28 @@
       <c r="G6">
         <v>166</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7">
         <f>SUM(G4*2)</f>
         <v>56</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7">
@@ -4051,20 +4183,20 @@
       <c r="G7">
         <v>66</v>
       </c>
-      <c r="AA7" s="3"/>
+      <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B8">
         <f>SUM((G4+G7)/E8)</f>
         <v>47</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8">
@@ -4074,28 +4206,28 @@
       <c r="G8">
         <v>52</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="6">
         <v>2.4895833333333335</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B9">
         <f>G5/E9</f>
         <v>14</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9">
@@ -4105,34 +4237,34 @@
       <c r="G9">
         <v>19</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>500</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="6">
         <v>1.9479166666666667</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B10">
         <f>SUM(G4+(G9*3))</f>
         <v>85</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10">
@@ -4142,35 +4274,35 @@
       <c r="G10">
         <v>95</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="O10">
         <f>O9*500</f>
         <v>250000</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B11">
         <f>G4</f>
         <v>28</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11">
@@ -4180,29 +4312,29 @@
       <c r="G11">
         <v>38</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O11">
         <f>O10*20</f>
         <v>5000000</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B12">
         <f>SUM(G6*8)</f>
         <v>1328</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12">
@@ -4214,84 +4346,84 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1">
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>100</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="B15" s="7"/>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="2">
         <v>1000</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <f>SUM((G15*30)+(G14*5))/2</f>
         <v>27.5</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16">
@@ -4301,43 +4433,43 @@
       <c r="G16">
         <v>39</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>50000</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="U16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="X16" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <f>SUM((G16*5)+G4+(G15*100))/50</f>
         <v>6.46</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
         <v>50</v>
       </c>
       <c r="F17">
@@ -4347,40 +4479,40 @@
       <c r="G17">
         <v>18</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="4">
         <v>250000</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B18">
         <f>SUM(G4+G5)+(G17*20)</f>
         <v>416</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18">
@@ -4390,34 +4522,34 @@
       <c r="G18">
         <v>430</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="X18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="Y18" s="10">
         <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <f>SUM(G14*10)/10</f>
         <v>5</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19">
@@ -4427,40 +4559,40 @@
       <c r="G19">
         <v>16</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Y19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="Z19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AA19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AB19" s="3" t="s">
+      <c r="AB19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AC19" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <f>SUM((G14*20)+14)/E20</f>
         <v>57</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.5</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>2</v>
       </c>
       <c r="F20">
@@ -4470,25 +4602,25 @@
       <c r="G20">
         <v>63</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B21">
         <f>SUM((G20*2)+(G10*2)+(G9*4))</f>
         <v>392</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
         <v>6</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21">
@@ -4498,19 +4630,19 @@
       <c r="G21">
         <v>408</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="X21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="2">
         <v>500</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="Z21" s="10">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="2">
         <v>50</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="2">
         <v>0</v>
       </c>
       <c r="AC21">
@@ -4519,20 +4651,20 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B22">
         <f>SUM((G10*20)+(G21*2)+(G17*5))</f>
         <v>2806</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22">
@@ -4542,23 +4674,23 @@
       <c r="G22">
         <v>2826</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="Q22" s="3" t="s">
+      <c r="L22" s="11"/>
+      <c r="Q22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="2">
         <v>500</v>
       </c>
-      <c r="Z22" s="12">
+      <c r="Z22" s="10">
         <v>0.10138888888888889</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="2">
         <v>0</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="2">
         <v>0</v>
       </c>
       <c r="AC22">
@@ -4567,20 +4699,20 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B23">
         <f>SUM((G5*20)+(G20*5)+(G6*2))</f>
         <v>1207</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
         <v>20</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23">
@@ -4590,23 +4722,23 @@
       <c r="G23">
         <v>1237</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="Q23" s="3" t="s">
+      <c r="L23" s="11"/>
+      <c r="Q23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="X23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="2">
         <v>500</v>
       </c>
-      <c r="Z23" s="12">
+      <c r="Z23" s="10">
         <v>0.10277777777777777</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="2">
         <v>0</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="2">
         <v>0</v>
       </c>
       <c r="AC23">
@@ -4615,20 +4747,20 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="12.75">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B24">
         <f>SUM(G6+G7+(G11*2))</f>
         <v>308</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24">
@@ -4638,22 +4770,22 @@
       <c r="G24">
         <v>328</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="X24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="2">
         <v>1000</v>
       </c>
-      <c r="Z24" s="12">
+      <c r="Z24" s="10">
         <v>0.20694444444444443</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="2">
         <v>0</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="2">
         <v>0</v>
       </c>
       <c r="AC24">
@@ -4662,20 +4794,20 @@
       </c>
     </row>
     <row r="25" spans="1:29" ht="12.75">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B25">
         <f>SUM((G10*2)+G24+(G19*15))</f>
         <v>758</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
         <v>10</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25">
@@ -4685,25 +4817,25 @@
       <c r="G25">
         <v>778</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="T25" s="14" t="s">
+      <c r="T25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="X25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25" s="2">
         <v>200</v>
       </c>
-      <c r="Z25" s="12">
+      <c r="Z25" s="10">
         <v>0.2076388888888889</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA25" s="2">
         <v>0</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AB25" s="2">
         <v>0</v>
       </c>
       <c r="AC25">
@@ -4712,20 +4844,20 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="12.75">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B26">
         <f>SUM(G14*10)</f>
         <v>50</v>
       </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
         <v>2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26">
@@ -4735,22 +4867,22 @@
       <c r="G26">
         <v>62</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="X26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="2">
         <v>500</v>
       </c>
-      <c r="Z26" s="12">
+      <c r="Z26" s="10">
         <v>0.32291666666666669</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="2">
         <v>0</v>
       </c>
       <c r="AC26">
@@ -4759,20 +4891,20 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="12.75">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B27">
         <f>SUM(G26*10)</f>
         <v>620</v>
       </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
         <v>30</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27">
@@ -4782,22 +4914,22 @@
       <c r="G27">
         <v>660</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="X27" s="3" t="s">
+      <c r="X27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="2">
         <v>10000</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="Z27" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="2">
         <v>0</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="2">
         <v>0</v>
       </c>
       <c r="AC27">
@@ -4806,20 +4938,20 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="12.75">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B28">
         <f>SUM(G5*5)+(G6*5)+(G10*15)</f>
         <v>2395</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
         <v>10</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28">
@@ -4829,23 +4961,23 @@
       <c r="G28">
         <v>2415</v>
       </c>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:29" ht="12.75">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B29">
         <f>SUM(G6*20)+(G18*12+(G10*20))</f>
         <v>10380</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
         <v>20</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29">
@@ -4857,20 +4989,20 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="12.75">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B30">
         <f>SUM(G25+G6+(G18*2)+(G10*3))</f>
         <v>2089</v>
       </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
         <v>20</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30">
@@ -4882,20 +5014,20 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="12.75">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B31">
         <f>SUM(G10*5)+(G21*5)</f>
         <v>2515</v>
       </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
         <v>15</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31">
@@ -4905,25 +5037,25 @@
       <c r="G31">
         <v>2540</v>
       </c>
-      <c r="X31" s="3" t="s">
+      <c r="X31" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="12.75">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B32">
         <f>SUM(G21*5)+(G31*4)+(G22*5)</f>
         <v>26330</v>
       </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
         <v>30</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32">
@@ -4933,25 +5065,25 @@
       <c r="G32">
         <v>26370</v>
       </c>
-      <c r="X32" s="3" t="s">
+      <c r="X32" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="12.75">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B33">
         <f>SUM(G32*5)+(G21*5)+(G22*5)</f>
         <v>148020</v>
       </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
         <v>60</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33">
@@ -4961,84 +5093,84 @@
       <c r="G33">
         <v>148090</v>
       </c>
-      <c r="X33" s="3" t="s">
+      <c r="X33" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="12.75">
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19" t="s">
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="19" t="s">
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="P34" s="3" t="s">
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="P34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="X34" s="3" t="s">
+      <c r="X34" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="14.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B35">
         <f>SUM(G6*100)+(G23*250)</f>
         <v>325850</v>
       </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35">
         <f t="shared" ref="F35:F44" si="4">SUM(B35+(C35*10)+D35)</f>
         <v>325910</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="14">
         <v>325910</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="13">
         <v>325000</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="14">
         <f t="shared" ref="I35:I44" si="5">H35/100</f>
         <v>3250</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="14">
         <f>((I35*60) + (I35*2*30) + (I35*3*10)) / 100</f>
         <v>4875</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="14">
         <f t="shared" ref="Q35:Q44" si="6">$P$44/P35</f>
         <v>458.81025641025639</v>
       </c>
@@ -5046,46 +5178,46 @@
         <f>Q35/Q47</f>
         <v>0.34085816041109984</v>
       </c>
-      <c r="X35" s="3" t="s">
+      <c r="X35" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="28.5">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B36">
         <f>SUM(G22*100)+(G25*100)+(G23*100)+(G11*100)+(G33*50)</f>
         <v>7892400</v>
       </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
         <v>50</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
         <v>7892460</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="14">
         <v>7892460</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="13">
         <v>8000000</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="14">
         <f t="shared" si="5"/>
         <v>80000</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="14">
         <f>I36</f>
         <v>80000</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q36" s="14">
         <f t="shared" si="6"/>
         <v>27.958749999999998</v>
       </c>
@@ -5093,58 +5225,58 @@
         <f>Q36/Q47</f>
         <v>2.0771044150051397E-2</v>
       </c>
-      <c r="X36" s="3" t="s">
+      <c r="X36" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="14.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="17" t="s">
         <v>159</v>
       </c>
       <c r="B37">
         <f>SUM(G6*100)+(G22*100)+(G23*100)+(G27*500)</f>
         <v>752900</v>
       </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
         <v>50</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
         <v>752960</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="14">
         <v>752960</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="13">
         <v>750000</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="14">
         <f t="shared" si="5"/>
         <v>7500</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P37" s="14">
         <f t="shared" ref="P37:P38" si="7">((I37*60) + (I37*2*30) + (I37*3*10)) / 100</f>
         <v>11250</v>
       </c>
-      <c r="Q37" s="16">
+      <c r="Q37" s="14">
         <f t="shared" si="6"/>
         <v>198.81777777777779</v>
       </c>
@@ -5152,58 +5284,58 @@
         <f>Q37/Q47</f>
         <v>0.14770520284480995</v>
       </c>
-      <c r="X37" s="3" t="s">
+      <c r="X37" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="14.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="17" t="s">
         <v>164</v>
       </c>
       <c r="B38">
         <f>SUM(G52 * 100)</f>
         <v>5753500</v>
       </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
         <v>100</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
         <v>5753610</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="14">
         <v>5753610</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="13">
         <v>575000</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="14">
         <f t="shared" si="5"/>
         <v>5750</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38" s="14">
         <f t="shared" si="7"/>
         <v>8625</v>
       </c>
-      <c r="Q38" s="16">
+      <c r="Q38" s="14">
         <f t="shared" si="6"/>
         <v>259.32753623188404</v>
       </c>
@@ -5211,46 +5343,46 @@
         <f>Q38/Q47</f>
         <v>0.19265896023236079</v>
       </c>
-      <c r="X38" s="3" t="s">
+      <c r="X38" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="14.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B39">
         <f>SUM(G50 * 100)</f>
         <v>62707000</v>
       </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
         <v>100</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
         <v>62707110</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="14">
         <v>62707110</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="13">
         <v>62700000</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="14">
         <f t="shared" si="5"/>
         <v>627000</v>
       </c>
-      <c r="P39" s="16">
+      <c r="P39" s="14">
         <f>I39</f>
         <v>627000</v>
       </c>
-      <c r="Q39" s="16">
+      <c r="Q39" s="14">
         <f t="shared" si="6"/>
         <v>3.5673046251993621</v>
       </c>
@@ -5260,53 +5392,53 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="14.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B40">
         <f>SUM(G6*100)+(G20*500)+(100*G22)+(G23*100)</f>
         <v>454400</v>
       </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
         <v>50</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
         <v>454460</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="14">
         <v>454460</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="13">
         <v>450000</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="14">
         <f t="shared" si="5"/>
         <v>4500</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P40" s="16">
+      <c r="P40" s="14">
         <f>((I40*60) + (I40*2*30) + (I40*3*10)) / 100</f>
         <v>6750</v>
       </c>
-      <c r="Q40" s="16">
+      <c r="Q40" s="14">
         <f t="shared" si="6"/>
         <v>331.36296296296297</v>
       </c>
@@ -5316,41 +5448,41 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="14.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="17" t="s">
         <v>174</v>
       </c>
       <c r="B41">
         <f>SUM(100*G22)+(G23*100)+(G11*200)+(50*G33)</f>
         <v>7818400</v>
       </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
         <v>50</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
         <v>7818460</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="14">
         <v>7818460</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="13">
         <v>7800000</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="14">
         <f t="shared" si="5"/>
         <v>78000</v>
       </c>
-      <c r="P41" s="16">
+      <c r="P41" s="14">
         <f t="shared" ref="P41:P44" si="8">I41</f>
         <v>78000</v>
       </c>
-      <c r="Q41" s="16">
+      <c r="Q41" s="14">
         <f t="shared" si="6"/>
         <v>28.675641025641024</v>
       </c>
@@ -5360,41 +5492,41 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="28.5">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="17" t="s">
         <v>177</v>
       </c>
       <c r="B42">
         <f>SUM(200*G20)+(100*G22)+(G23*100)+(G33*150)</f>
         <v>22632400</v>
       </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
         <v>50</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
         <v>22632460</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="14">
         <v>22632460</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="13">
         <v>22600000</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="14">
         <f t="shared" si="5"/>
         <v>226000</v>
       </c>
-      <c r="P42" s="16">
+      <c r="P42" s="14">
         <f t="shared" si="8"/>
         <v>226000</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42" s="14">
         <f t="shared" si="6"/>
         <v>9.8969026548672563</v>
       </c>
@@ -5404,41 +5536,41 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="14.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="17" t="s">
         <v>180</v>
       </c>
       <c r="B43">
         <f>SUM(300*G22)+(G23*100)+(G33*50)</f>
         <v>8376000</v>
       </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
         <v>50</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
         <v>8376060</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="14">
         <v>8376060</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="13">
         <v>8400000</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="14">
         <f t="shared" si="5"/>
         <v>84000</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43" s="14">
         <f t="shared" si="8"/>
         <v>84000</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="14">
         <f t="shared" si="6"/>
         <v>26.627380952380953</v>
       </c>
@@ -5446,52 +5578,52 @@
         <f>Q43/Q47</f>
         <v>1.9781946809572761E-2</v>
       </c>
-      <c r="X43" s="3" t="s">
+      <c r="X43" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="28.5">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B44">
         <f>SUM(G22*500)+(G23*100)+(G33*1500)</f>
         <v>223671700</v>
       </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
         <v>50</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
         <v>223671760</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="14">
         <v>223671760</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="13">
         <v>223670000</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="14">
         <f t="shared" si="5"/>
         <v>2236700</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="P44" s="16">
+      <c r="P44" s="14">
         <f t="shared" si="8"/>
         <v>2236700</v>
       </c>
-      <c r="Q44" s="16">
+      <c r="Q44" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -5499,146 +5631,146 @@
         <f>Q44/Q47</f>
         <v>7.429174820065775E-4</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="X44" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="12.75">
-      <c r="G45" s="18"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="19" t="s">
+      <c r="G45" s="15"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="N45" s="18"/>
+      <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:24" ht="15">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>190</v>
       </c>
       <c r="B46">
         <f>(G6*50)+(G21*30)</f>
         <v>20540</v>
       </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
         <v>15</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46">
         <f t="shared" ref="F46:F60" si="9">SUM(B46+(C46*10)+D46)</f>
         <v>20565</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="14">
         <v>20565</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="13">
         <v>20500</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46:I60" si="10">H46/100</f>
         <v>205</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="2">
         <v>205</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="2">
         <v>1350</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="2">
         <v>15000</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="Q46" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="15">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>196</v>
       </c>
       <c r="B47">
         <f>(G6*40)+(G22*40)+(G25*20)</f>
         <v>135240</v>
       </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
         <v>20</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47">
         <f t="shared" si="9"/>
         <v>135270</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="14">
         <v>135270</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="13">
         <v>135000</v>
       </c>
       <c r="I47">
         <f t="shared" si="10"/>
         <v>1350</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="2">
         <v>600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="2">
         <v>6250</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="2">
         <v>12500</v>
       </c>
-      <c r="Q47" s="16">
+      <c r="Q47" s="14">
         <f>SUM(Q35:Q44)</f>
         <v>1346.0445126409697</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="15">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>199</v>
       </c>
       <c r="B48">
         <f>SUM(G32*50)+(G22*60)+(G25*40)+(G23*30)</f>
         <v>1556290</v>
       </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
         <v>25</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48">
         <f t="shared" si="9"/>
         <v>1556325</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="14">
         <v>1556325</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="13">
         <v>1500000</v>
       </c>
       <c r="I48">
         <f t="shared" si="10"/>
         <v>15000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="2">
         <v>80</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="2">
         <v>550</v>
       </c>
       <c r="N48">
@@ -5647,40 +5779,40 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="15">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>202</v>
       </c>
       <c r="B49">
         <f>(G6*5)+(G21*2)+G28</f>
         <v>4061</v>
       </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
         <v>10</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49">
         <f t="shared" si="9"/>
         <v>4081</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="14">
         <v>4081</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="13">
         <v>4000</v>
       </c>
       <c r="I49">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="2">
         <v>400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="2">
         <v>600</v>
       </c>
       <c r="N49">
@@ -5689,40 +5821,40 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="15">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="19" t="s">
         <v>204</v>
       </c>
       <c r="B50">
         <f>(G22*200)+(50*G23)</f>
         <v>627050</v>
       </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
         <v>10</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50">
         <f t="shared" si="9"/>
         <v>627070</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="14">
         <v>627070</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="13">
         <v>625000</v>
       </c>
       <c r="I50">
         <f t="shared" si="10"/>
         <v>6250</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="2">
         <v>400</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="2">
         <v>80</v>
       </c>
       <c r="N50">
@@ -5731,65 +5863,65 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="15">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="19" t="s">
         <v>205</v>
       </c>
       <c r="B51">
         <f>(G6*10)+(G21*5)</f>
         <v>3700</v>
       </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
         <v>10</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51">
         <f t="shared" si="9"/>
         <v>3720</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="14">
         <v>3720</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="13">
         <v>4000</v>
       </c>
       <c r="I51">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="15">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>206</v>
       </c>
       <c r="B52">
         <f>(G51*10)+(5*G22)+(G23*5)</f>
         <v>57515</v>
       </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
         <v>10</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52">
         <f t="shared" si="9"/>
         <v>57535</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="14">
         <v>57535</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="13">
         <v>57500</v>
       </c>
       <c r="I52">
@@ -5810,65 +5942,65 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="15">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>207</v>
       </c>
       <c r="B53">
         <f>(G6*10)+(G18*5)</f>
         <v>3810</v>
       </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
         <v>10</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>1</v>
       </c>
       <c r="F53">
         <f t="shared" si="9"/>
         <v>3830</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="14">
         <v>3830</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="13">
         <v>4000</v>
       </c>
       <c r="I53">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="S53" s="3" t="s">
+      <c r="S53" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="15">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>209</v>
       </c>
       <c r="B54">
         <f>(G53*10)+(G22*15)+(G23*5)</f>
         <v>86875</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
         <v>10</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54">
         <f t="shared" si="9"/>
         <v>86895</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="14">
         <v>86895</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="13">
         <v>87000</v>
       </c>
       <c r="I54">
@@ -5879,294 +6011,294 @@
         <f>SUM(N46:N52)</f>
         <v>47580</v>
       </c>
-      <c r="S54" s="3" t="s">
+      <c r="S54" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T54" s="3" t="s">
+      <c r="T54" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="U54" s="3" t="s">
+      <c r="U54" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="15">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="19" t="s">
         <v>213</v>
       </c>
       <c r="B55">
         <f>(G22*20)+(G23*5)+(G29*5)</f>
         <v>114755</v>
       </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
         <v>10</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55">
         <f t="shared" si="9"/>
         <v>114775</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="14">
         <v>114775</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="13">
         <v>115000</v>
       </c>
       <c r="I55">
         <f t="shared" si="10"/>
         <v>1150</v>
       </c>
-      <c r="S55" s="3" t="s">
+      <c r="S55" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="T55" s="23">
+      <c r="T55" s="20">
         <v>2000000</v>
       </c>
-      <c r="U55" s="23">
+      <c r="U55" s="20">
         <v>2000000</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="15">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="19" t="s">
         <v>215</v>
       </c>
       <c r="B56">
         <f>(G6*20)+(G22*10)+(G25*30)</f>
         <v>54920</v>
       </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
         <v>10</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56">
         <f t="shared" si="9"/>
         <v>54940</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="14">
         <v>54940</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="13">
         <v>55000</v>
       </c>
       <c r="I56">
         <f t="shared" si="10"/>
         <v>550</v>
       </c>
-      <c r="S56" s="3">
-        <v>1</v>
-      </c>
-      <c r="T56" s="24">
+      <c r="S56" s="2">
+        <v>1</v>
+      </c>
+      <c r="T56" s="21">
         <f t="shared" ref="T56:T74" si="12">T55 + (T55 * 0.02) + (250*4*6)</f>
         <v>2046000</v>
       </c>
-      <c r="U56" s="24">
+      <c r="U56" s="21">
         <f t="shared" ref="U56:U74" si="13">U55 + (U55 * 0.02) + (250*4*6) - (5000*60)</f>
         <v>1746000</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="15">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B57">
         <f>SUM(G18*45)+(G7*40)+(G6*20)+(G21*10)</f>
         <v>29390</v>
       </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
         <v>10</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57">
         <f t="shared" si="9"/>
         <v>29410</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="14">
         <v>29410</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="13">
         <v>30000</v>
       </c>
       <c r="I57">
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="2">
         <v>2</v>
       </c>
-      <c r="T57" s="24">
+      <c r="T57" s="21">
         <f t="shared" si="12"/>
         <v>2092920</v>
       </c>
-      <c r="U57" s="24">
+      <c r="U57" s="21">
         <f t="shared" si="13"/>
         <v>1486920</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="15">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="19" t="s">
         <v>217</v>
       </c>
       <c r="B58">
         <f>(100*G22)+(20*G23)+(G57*5)</f>
         <v>454390</v>
       </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
         <v>20</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58">
         <f t="shared" si="9"/>
         <v>454420</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="14">
         <v>454420</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="13">
         <v>450000</v>
       </c>
       <c r="I58">
         <f t="shared" si="10"/>
         <v>4500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="2">
         <v>3</v>
       </c>
-      <c r="T58" s="24">
+      <c r="T58" s="21">
         <f t="shared" si="12"/>
         <v>2140778.4</v>
       </c>
-      <c r="U58" s="24">
+      <c r="U58" s="21">
         <f t="shared" si="13"/>
         <v>1222658.3999999999</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="15">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="19" t="s">
         <v>218</v>
       </c>
       <c r="B59">
         <f>(G6*10)+(G21*5)</f>
         <v>3700</v>
       </c>
-      <c r="C59" s="3">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
         <v>10</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59">
         <f t="shared" si="9"/>
         <v>3720</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="14">
         <v>3720</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="13">
         <v>4000</v>
       </c>
       <c r="I59">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="2">
         <v>4</v>
       </c>
-      <c r="T59" s="24">
+      <c r="T59" s="21">
         <f t="shared" si="12"/>
         <v>2189593.9679999999</v>
       </c>
-      <c r="U59" s="24">
+      <c r="U59" s="21">
         <f t="shared" si="13"/>
         <v>953111.56799999997</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="15">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="19" t="s">
         <v>219</v>
       </c>
       <c r="B60">
         <f>G30+(G10*2)</f>
         <v>2309</v>
       </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
         <v>1</v>
       </c>
       <c r="F60">
         <f t="shared" si="9"/>
         <v>2319</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="14">
         <v>2319</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="13">
         <v>2000</v>
       </c>
       <c r="I60">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="2">
         <v>5</v>
       </c>
-      <c r="T60" s="24">
+      <c r="T60" s="21">
         <f t="shared" si="12"/>
         <v>2239385.84736</v>
       </c>
-      <c r="U60" s="24">
+      <c r="U60" s="21">
         <f t="shared" si="13"/>
         <v>678173.79935999995</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="12.75">
-      <c r="S61" s="3">
+      <c r="S61" s="2">
         <v>6</v>
       </c>
-      <c r="T61" s="24">
+      <c r="T61" s="21">
         <f t="shared" si="12"/>
         <v>2290173.5643071998</v>
       </c>
-      <c r="U61" s="24">
+      <c r="U61" s="21">
         <f t="shared" si="13"/>
         <v>397737.27534719999</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="12.75">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B62">
         <f>SUM(G12+(G10*3)+G21)</f>
         <v>2031</v>
       </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="F62">
@@ -6176,39 +6308,39 @@
       <c r="G62">
         <v>2041</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="2">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="2">
         <v>20</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="2">
         <v>7</v>
       </c>
-      <c r="T62" s="24">
+      <c r="T62" s="21">
         <f t="shared" si="12"/>
         <v>2341977.0355933439</v>
       </c>
-      <c r="U62" s="24">
+      <c r="U62" s="21">
         <f t="shared" si="13"/>
         <v>111692.02085414401</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="12.75">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B63">
         <f>SUM(G6*45)+(G7*45)+(G21*45)</f>
         <v>28800</v>
       </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
         <v>5</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>1</v>
       </c>
       <c r="F63">
@@ -6218,172 +6350,172 @@
       <c r="G63">
         <v>28815</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="2">
         <v>29000</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="2">
         <v>290</v>
       </c>
-      <c r="S63" s="3">
+      <c r="S63" s="2">
         <v>8</v>
       </c>
-      <c r="T63" s="24">
+      <c r="T63" s="21">
         <f t="shared" si="12"/>
         <v>2394816.5763052106</v>
       </c>
-      <c r="U63" s="24">
+      <c r="U63" s="21">
         <f t="shared" si="13"/>
         <v>-180074.1387287731</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="12.75">
-      <c r="S64" s="3">
+      <c r="S64" s="2">
         <v>9</v>
       </c>
-      <c r="T64" s="24">
+      <c r="T64" s="21">
         <f t="shared" si="12"/>
         <v>2448712.907831315</v>
       </c>
-      <c r="U64" s="24">
+      <c r="U64" s="21">
         <f t="shared" si="13"/>
         <v>-477675.62150334858</v>
       </c>
     </row>
     <row r="65" spans="19:21" ht="12.75">
-      <c r="S65" s="3">
+      <c r="S65" s="2">
         <v>10</v>
       </c>
-      <c r="T65" s="24">
+      <c r="T65" s="21">
         <f t="shared" si="12"/>
         <v>2503687.1659879414</v>
       </c>
-      <c r="U65" s="24">
+      <c r="U65" s="21">
         <f t="shared" si="13"/>
         <v>-781229.13393341564</v>
       </c>
     </row>
     <row r="66" spans="19:21" ht="12.75">
-      <c r="S66" s="3">
+      <c r="S66" s="2">
         <v>11</v>
       </c>
-      <c r="T66" s="24">
+      <c r="T66" s="21">
         <f t="shared" si="12"/>
         <v>2559760.9093077001</v>
       </c>
-      <c r="U66" s="24">
+      <c r="U66" s="21">
         <f t="shared" si="13"/>
         <v>-1090853.7166120838</v>
       </c>
     </row>
     <row r="67" spans="19:21" ht="12.75">
-      <c r="S67" s="3">
+      <c r="S67" s="2">
         <v>12</v>
       </c>
-      <c r="T67" s="24">
+      <c r="T67" s="21">
         <f t="shared" si="12"/>
         <v>2616956.1274938541</v>
       </c>
-      <c r="U67" s="24">
+      <c r="U67" s="21">
         <f t="shared" si="13"/>
         <v>-1406670.7909443255</v>
       </c>
     </row>
     <row r="68" spans="19:21" ht="12.75">
-      <c r="S68" s="3">
+      <c r="S68" s="2">
         <v>13</v>
       </c>
-      <c r="T68" s="24">
+      <c r="T68" s="21">
         <f t="shared" si="12"/>
         <v>2675295.2500437312</v>
       </c>
-      <c r="U68" s="24">
+      <c r="U68" s="21">
         <f t="shared" si="13"/>
         <v>-1728804.2067632121</v>
       </c>
     </row>
     <row r="69" spans="19:21" ht="12.75">
-      <c r="S69" s="3">
+      <c r="S69" s="2">
         <v>14</v>
       </c>
-      <c r="T69" s="24">
+      <c r="T69" s="21">
         <f t="shared" si="12"/>
         <v>2734801.155044606</v>
       </c>
-      <c r="U69" s="24">
+      <c r="U69" s="21">
         <f t="shared" si="13"/>
         <v>-2057380.2908984763</v>
       </c>
     </row>
     <row r="70" spans="19:21" ht="12.75">
-      <c r="S70" s="3">
+      <c r="S70" s="2">
         <v>15</v>
       </c>
-      <c r="T70" s="24">
+      <c r="T70" s="21">
         <f t="shared" si="12"/>
         <v>2795497.178145498</v>
       </c>
-      <c r="U70" s="24">
+      <c r="U70" s="21">
         <f t="shared" si="13"/>
         <v>-2392527.8967164457</v>
       </c>
     </row>
     <row r="71" spans="19:21" ht="12.75">
-      <c r="S71" s="3">
+      <c r="S71" s="2">
         <v>16</v>
       </c>
-      <c r="T71" s="24">
+      <c r="T71" s="21">
         <f t="shared" si="12"/>
         <v>2857407.121708408</v>
       </c>
-      <c r="U71" s="24">
+      <c r="U71" s="21">
         <f t="shared" si="13"/>
         <v>-2734378.4546507746</v>
       </c>
     </row>
     <row r="72" spans="19:21" ht="12.75">
-      <c r="S72" s="3">
+      <c r="S72" s="2">
         <v>17</v>
       </c>
-      <c r="T72" s="24">
+      <c r="T72" s="21">
         <f t="shared" si="12"/>
         <v>2920555.2641425761</v>
       </c>
-      <c r="U72" s="24">
+      <c r="U72" s="21">
         <f t="shared" si="13"/>
         <v>-3083066.0237437901</v>
       </c>
     </row>
     <row r="73" spans="19:21" ht="12.75">
-      <c r="S73" s="3">
+      <c r="S73" s="2">
         <v>18</v>
       </c>
-      <c r="T73" s="24">
+      <c r="T73" s="21">
         <f t="shared" si="12"/>
         <v>2984966.3694254276</v>
       </c>
-      <c r="U73" s="24">
+      <c r="U73" s="21">
         <f t="shared" si="13"/>
         <v>-3438727.3442186657</v>
       </c>
     </row>
     <row r="74" spans="19:21" ht="12.75">
-      <c r="S74" s="3">
+      <c r="S74" s="2">
         <v>19</v>
       </c>
-      <c r="T74" s="24">
+      <c r="T74" s="21">
         <f t="shared" si="12"/>
         <v>3050665.6968139363</v>
       </c>
-      <c r="U74" s="24">
+      <c r="U74" s="21">
         <f t="shared" si="13"/>
         <v>-3801501.891103039</v>
       </c>
     </row>
     <row r="75" spans="19:21" ht="12.75">
-      <c r="T75" s="24"/>
+      <c r="T75" s="21"/>
     </row>
     <row r="76" spans="19:21" ht="12.75">
-      <c r="T76" s="24"/>
+      <c r="T76" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
